--- a/blueprint-jira-better-excel/Ursa-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Ursa-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{00227F7A-2FB7-4958-B4F4-381A7ECBAE16}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{B3F9DC95-024A-48B7-93F2-83413C12723D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3714,25 +3714,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>129.85074626865674</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107.46268656716418</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.313432835820905</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>64.925373134328368</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>53.731343283582092</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43.656716417910452</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32.462686567164184</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.268656716417915</c:v>
+                  <c:v>42.53731343283583</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.194029850746269</c:v>
+                  <c:v>22.388059701492537</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -4644,10 +4644,28 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75</c:v>
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6888,25 +6906,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>175</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>151.49253731343285</c:v>
+                  <c:v>103.88059701492539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>125.37313432835822</c:v>
+                  <c:v>85.97014925373135</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101.86567164179105</c:v>
+                  <c:v>69.850746268656721</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.746268656716424</c:v>
+                  <c:v>51.940298507462693</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49.626865671641795</c:v>
+                  <c:v>34.029850746268664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.119402985074625</c:v>
+                  <c:v>17.910447761194028</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -7987,10 +8005,28 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>175</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>175</c:v>
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10139,6 +10175,24 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
@@ -20968,6 +21022,24 @@
                 <c:pt idx="1">
                   <c:v>420</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>420</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -42812,7 +42884,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43669.618159837963" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43675.652392824071" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -48337,6 +48409,3128 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="12" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="8"/>
+        <item h="1" x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="37"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="46" item="2" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="10" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="57">
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="27"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="53">
+        <item x="0"/>
+        <item m="1" x="45"/>
+        <item m="1" x="16"/>
+        <item m="1" x="25"/>
+        <item m="1" x="46"/>
+        <item m="1" x="20"/>
+        <item m="1" x="26"/>
+        <item m="1" x="47"/>
+        <item m="1" x="21"/>
+        <item m="1" x="9"/>
+        <item m="1" x="27"/>
+        <item m="1" x="49"/>
+        <item m="1" x="22"/>
+        <item m="1" x="31"/>
+        <item m="1" x="50"/>
+        <item m="1" x="11"/>
+        <item m="1" x="12"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item m="1" x="15"/>
+        <item m="1" x="17"/>
+        <item m="1" x="18"/>
+        <item m="1" x="19"/>
+        <item x="1"/>
+        <item m="1" x="38"/>
+        <item m="1" x="39"/>
+        <item m="1" x="40"/>
+        <item m="1" x="41"/>
+        <item m="1" x="42"/>
+        <item m="1" x="43"/>
+        <item m="1" x="44"/>
+        <item m="1" x="28"/>
+        <item m="1" x="29"/>
+        <item m="1" x="30"/>
+        <item m="1" x="33"/>
+        <item m="1" x="34"/>
+        <item m="1" x="35"/>
+        <item m="1" x="36"/>
+        <item m="1" x="48"/>
+        <item m="1" x="32"/>
+        <item m="1" x="23"/>
+        <item m="1" x="51"/>
+        <item m="1" x="37"/>
+        <item m="1" x="24"/>
+        <item m="1" x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="30" item="45" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="57">
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="27"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="11" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="12" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
@@ -48685,7 +51879,629 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="13" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="44"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item h="1" x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item h="1" x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
@@ -49130,3750 +52946,6 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="12" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="37"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="46" item="2" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="10" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="50">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="51">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="52">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="53">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="54">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="55">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="57">
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="27"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="53">
-        <item x="0"/>
-        <item m="1" x="45"/>
-        <item m="1" x="16"/>
-        <item m="1" x="25"/>
-        <item m="1" x="46"/>
-        <item m="1" x="20"/>
-        <item m="1" x="26"/>
-        <item m="1" x="47"/>
-        <item m="1" x="21"/>
-        <item m="1" x="9"/>
-        <item m="1" x="27"/>
-        <item m="1" x="49"/>
-        <item m="1" x="22"/>
-        <item m="1" x="31"/>
-        <item m="1" x="50"/>
-        <item m="1" x="11"/>
-        <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item m="1" x="15"/>
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
-        <item x="1"/>
-        <item m="1" x="38"/>
-        <item m="1" x="39"/>
-        <item m="1" x="40"/>
-        <item m="1" x="41"/>
-        <item m="1" x="42"/>
-        <item m="1" x="43"/>
-        <item m="1" x="44"/>
-        <item m="1" x="28"/>
-        <item m="1" x="29"/>
-        <item m="1" x="30"/>
-        <item m="1" x="33"/>
-        <item m="1" x="34"/>
-        <item m="1" x="35"/>
-        <item m="1" x="36"/>
-        <item m="1" x="48"/>
-        <item m="1" x="32"/>
-        <item m="1" x="23"/>
-        <item m="1" x="51"/>
-        <item m="1" x="37"/>
-        <item m="1" x="24"/>
-        <item m="1" x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="45" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="57">
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="27"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="28">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="29">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="44"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="13" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="8"/>
-        <item h="1" x="5"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="12" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item h="1" x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item h="1" x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="11" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -58678,17 +58750,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -58881,7 +58955,7 @@
       </c>
       <c r="S3" s="40">
         <f>$Q$26*(100%-K3)</f>
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="T3" s="42">
         <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Version Compare")</f>
@@ -58889,7 +58963,7 @@
       </c>
       <c r="U3" s="40">
         <f>$Q$27*(100%-L3)</f>
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="V3" s="42">
         <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Traces")</f>
@@ -58966,7 +59040,7 @@
       </c>
       <c r="S4" s="42">
         <f>$Q$26*(100%-K4)</f>
-        <v>64.925373134328368</v>
+        <v>129.85074626865674</v>
       </c>
       <c r="T4" s="42">
         <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Version Compare")</f>
@@ -58974,7 +59048,7 @@
       </c>
       <c r="U4" s="40">
         <f>$Q$27*(100%-L4)</f>
-        <v>151.49253731343285</v>
+        <v>103.88059701492539</v>
       </c>
       <c r="V4" s="42">
         <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Traces")</f>
@@ -59036,12 +59110,12 @@
       <c r="R5" s="42"/>
       <c r="S5" s="42">
         <f t="shared" ref="S5:S9" si="2">$Q$26*(100%-K5)</f>
-        <v>53.731343283582092</v>
+        <v>107.46268656716418</v>
       </c>
       <c r="T5" s="42"/>
       <c r="U5" s="40">
         <f t="shared" ref="U5:U9" si="3">$Q$27*(100%-L5)</f>
-        <v>125.37313432835822</v>
+        <v>85.97014925373135</v>
       </c>
       <c r="V5" s="42"/>
       <c r="W5" s="40">
@@ -59076,7 +59150,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43669</v>
+        <v>43675</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>273</v>
@@ -59112,12 +59186,12 @@
       <c r="R6" s="42"/>
       <c r="S6" s="42">
         <f t="shared" ref="S6" si="6">$Q$26*(100%-K6)</f>
-        <v>43.656716417910452</v>
+        <v>87.313432835820905</v>
       </c>
       <c r="T6" s="42"/>
       <c r="U6" s="40">
         <f t="shared" ref="U6" si="7">$Q$27*(100%-L6)</f>
-        <v>101.86567164179105</v>
+        <v>69.850746268656721</v>
       </c>
       <c r="V6" s="42"/>
       <c r="W6" s="40">
@@ -59178,12 +59252,12 @@
       <c r="R7" s="42"/>
       <c r="S7" s="42">
         <f t="shared" si="2"/>
-        <v>32.462686567164184</v>
+        <v>64.925373134328368</v>
       </c>
       <c r="T7" s="42"/>
       <c r="U7" s="40">
         <f t="shared" si="3"/>
-        <v>75.746268656716424</v>
+        <v>51.940298507462693</v>
       </c>
       <c r="V7" s="42"/>
       <c r="W7" s="40">
@@ -59239,12 +59313,12 @@
       <c r="R8" s="42"/>
       <c r="S8" s="42">
         <f t="shared" si="2"/>
-        <v>21.268656716417915</v>
+        <v>42.53731343283583</v>
       </c>
       <c r="T8" s="42"/>
       <c r="U8" s="40">
         <f t="shared" si="3"/>
-        <v>49.626865671641795</v>
+        <v>34.029850746268664</v>
       </c>
       <c r="V8" s="42"/>
       <c r="W8" s="40">
@@ -59304,12 +59378,12 @@
       <c r="R9" s="42"/>
       <c r="S9" s="42">
         <f t="shared" si="2"/>
-        <v>11.194029850746269</v>
+        <v>22.388059701492537</v>
       </c>
       <c r="T9" s="42"/>
       <c r="U9" s="42">
         <f t="shared" si="3"/>
-        <v>26.119402985074625</v>
+        <v>17.910447761194028</v>
       </c>
       <c r="V9" s="42"/>
       <c r="W9" s="42">
@@ -59750,7 +59824,7 @@
         <v>268</v>
       </c>
       <c r="Q26">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.45">
@@ -59782,7 +59856,7 @@
         <v>269</v>
       </c>
       <c r="Q27">
-        <v>175</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.45">
@@ -60550,7 +60624,7 @@
       </c>
       <c r="M3" s="58">
         <f>_ReleaseData!$Q$26</f>
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="N3" s="40">
         <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
@@ -60582,7 +60656,7 @@
       </c>
       <c r="U3" s="58">
         <f>_ReleaseData!$Q$27</f>
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="V3" s="40">
         <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
@@ -60689,7 +60763,7 @@
       </c>
       <c r="M4" s="58">
         <f>_ReleaseData!$Q$26</f>
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="N4" s="40">
         <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
@@ -60721,7 +60795,7 @@
       </c>
       <c r="U4" s="58">
         <f>_ReleaseData!$Q$27</f>
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="V4" s="40">
         <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
@@ -60791,7 +60865,10 @@
         <v>43704</v>
       </c>
       <c r="D5" s="57"/>
-      <c r="E5" s="58"/>
+      <c r="E5" s="58">
+        <f>_ReleaseData!$Q$25</f>
+        <v>420</v>
+      </c>
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
@@ -60799,7 +60876,10 @@
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
       <c r="L5" s="59"/>
-      <c r="M5" s="58"/>
+      <c r="M5" s="58">
+        <f>_ReleaseData!$Q$26</f>
+        <v>150</v>
+      </c>
       <c r="N5" s="40"/>
       <c r="O5" s="40"/>
       <c r="P5" s="40"/>
@@ -60807,7 +60887,10 @@
       <c r="R5" s="33"/>
       <c r="S5" s="33"/>
       <c r="T5" s="57"/>
-      <c r="U5" s="58"/>
+      <c r="U5" s="58">
+        <f>_ReleaseData!$Q$27</f>
+        <v>120</v>
+      </c>
       <c r="V5" s="40"/>
       <c r="W5" s="40"/>
       <c r="X5" s="40"/>
@@ -60815,7 +60898,10 @@
       <c r="Z5" s="33"/>
       <c r="AA5" s="33"/>
       <c r="AB5" s="57"/>
-      <c r="AC5" s="58"/>
+      <c r="AC5" s="58">
+        <f>_ReleaseData!$Q$28</f>
+        <v>55</v>
+      </c>
       <c r="AD5" s="40"/>
       <c r="AE5" s="40"/>
       <c r="AF5" s="40"/>
@@ -60834,7 +60920,10 @@
         <v>43718</v>
       </c>
       <c r="D6" s="57"/>
-      <c r="E6" s="58"/>
+      <c r="E6" s="58">
+        <f>_ReleaseData!$Q$25</f>
+        <v>420</v>
+      </c>
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
@@ -60842,7 +60931,10 @@
       <c r="J6" s="33"/>
       <c r="K6" s="33"/>
       <c r="L6" s="59"/>
-      <c r="M6" s="58"/>
+      <c r="M6" s="58">
+        <f>_ReleaseData!$Q$26</f>
+        <v>150</v>
+      </c>
       <c r="N6" s="40"/>
       <c r="O6" s="40"/>
       <c r="P6" s="40"/>
@@ -60850,7 +60942,10 @@
       <c r="R6" s="33"/>
       <c r="S6" s="33"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="58"/>
+      <c r="U6" s="58">
+        <f>_ReleaseData!$Q$27</f>
+        <v>120</v>
+      </c>
       <c r="V6" s="40"/>
       <c r="W6" s="40"/>
       <c r="X6" s="40"/>
@@ -60858,7 +60953,10 @@
       <c r="Z6" s="33"/>
       <c r="AA6" s="33"/>
       <c r="AB6" s="57"/>
-      <c r="AC6" s="58"/>
+      <c r="AC6" s="58">
+        <f>_ReleaseData!$Q$28</f>
+        <v>55</v>
+      </c>
       <c r="AD6" s="40"/>
       <c r="AE6" s="40"/>
       <c r="AF6" s="40"/>
@@ -60877,7 +60975,10 @@
         <v>43732</v>
       </c>
       <c r="D7" s="57"/>
-      <c r="E7" s="58"/>
+      <c r="E7" s="58">
+        <f>_ReleaseData!$Q$25</f>
+        <v>420</v>
+      </c>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
@@ -60885,7 +60986,10 @@
       <c r="J7" s="33"/>
       <c r="K7" s="33"/>
       <c r="L7" s="59"/>
-      <c r="M7" s="58"/>
+      <c r="M7" s="58">
+        <f>_ReleaseData!$Q$26</f>
+        <v>150</v>
+      </c>
       <c r="N7" s="40"/>
       <c r="O7" s="40"/>
       <c r="P7" s="40"/>
@@ -60893,7 +60997,10 @@
       <c r="R7" s="33"/>
       <c r="S7" s="33"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="58"/>
+      <c r="U7" s="58">
+        <f>_ReleaseData!$Q$27</f>
+        <v>120</v>
+      </c>
       <c r="V7" s="40"/>
       <c r="W7" s="40"/>
       <c r="X7" s="40"/>
@@ -60901,7 +61008,10 @@
       <c r="Z7" s="33"/>
       <c r="AA7" s="33"/>
       <c r="AB7" s="57"/>
-      <c r="AC7" s="58"/>
+      <c r="AC7" s="58">
+        <f>_ReleaseData!$Q$28</f>
+        <v>55</v>
+      </c>
       <c r="AD7" s="40"/>
       <c r="AE7" s="40"/>
       <c r="AF7" s="40"/>
@@ -60926,7 +61036,10 @@
         <v>43746</v>
       </c>
       <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
+      <c r="E8" s="58">
+        <f>_ReleaseData!$Q$25</f>
+        <v>420</v>
+      </c>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
@@ -60934,7 +61047,10 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="59"/>
-      <c r="M8" s="58"/>
+      <c r="M8" s="58">
+        <f>_ReleaseData!$Q$26</f>
+        <v>150</v>
+      </c>
       <c r="N8" s="40"/>
       <c r="O8" s="40"/>
       <c r="P8" s="40"/>
@@ -60942,7 +61058,10 @@
       <c r="R8" s="33"/>
       <c r="S8" s="33"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="58"/>
+      <c r="U8" s="58">
+        <f>_ReleaseData!$Q$27</f>
+        <v>120</v>
+      </c>
       <c r="V8" s="40"/>
       <c r="W8" s="40"/>
       <c r="X8" s="40"/>
@@ -60950,7 +61069,10 @@
       <c r="Z8" s="33"/>
       <c r="AA8" s="33"/>
       <c r="AB8" s="57"/>
-      <c r="AC8" s="58"/>
+      <c r="AC8" s="58">
+        <f>_ReleaseData!$Q$28</f>
+        <v>55</v>
+      </c>
       <c r="AD8" s="40"/>
       <c r="AE8" s="40"/>
       <c r="AF8" s="40"/>
@@ -60975,7 +61097,10 @@
         <v>43760</v>
       </c>
       <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
+      <c r="E9" s="58">
+        <f>_ReleaseData!$Q$25</f>
+        <v>420</v>
+      </c>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
@@ -60983,7 +61108,10 @@
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
       <c r="L9" s="59"/>
-      <c r="M9" s="58"/>
+      <c r="M9" s="58">
+        <f>_ReleaseData!$Q$26</f>
+        <v>150</v>
+      </c>
       <c r="N9" s="40"/>
       <c r="O9" s="40"/>
       <c r="P9" s="40"/>
@@ -60991,7 +61119,10 @@
       <c r="R9" s="33"/>
       <c r="S9" s="33"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="58"/>
+      <c r="U9" s="58">
+        <f>_ReleaseData!$Q$27</f>
+        <v>120</v>
+      </c>
       <c r="V9" s="40"/>
       <c r="W9" s="40"/>
       <c r="X9" s="40"/>
@@ -60999,7 +61130,10 @@
       <c r="Z9" s="33"/>
       <c r="AA9" s="33"/>
       <c r="AB9" s="57"/>
-      <c r="AC9" s="58"/>
+      <c r="AC9" s="58">
+        <f>_ReleaseData!$Q$28</f>
+        <v>55</v>
+      </c>
       <c r="AD9" s="40"/>
       <c r="AE9" s="40"/>
       <c r="AF9" s="40"/>
@@ -61018,7 +61152,10 @@
         <v>43774</v>
       </c>
       <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
+      <c r="E10" s="58">
+        <f>_ReleaseData!$Q$25</f>
+        <v>420</v>
+      </c>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
@@ -61026,7 +61163,10 @@
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
       <c r="L10" s="59"/>
-      <c r="M10" s="58"/>
+      <c r="M10" s="58">
+        <f>_ReleaseData!$Q$26</f>
+        <v>150</v>
+      </c>
       <c r="N10" s="40"/>
       <c r="O10" s="40"/>
       <c r="P10" s="40"/>
@@ -61034,7 +61174,10 @@
       <c r="R10" s="33"/>
       <c r="S10" s="33"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="58"/>
+      <c r="U10" s="58">
+        <f>_ReleaseData!$Q$27</f>
+        <v>120</v>
+      </c>
       <c r="V10" s="40"/>
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
@@ -61042,7 +61185,10 @@
       <c r="Z10" s="33"/>
       <c r="AA10" s="33"/>
       <c r="AB10" s="57"/>
-      <c r="AC10" s="58"/>
+      <c r="AC10" s="58">
+        <f>_ReleaseData!$Q$28</f>
+        <v>55</v>
+      </c>
       <c r="AD10" s="40"/>
       <c r="AE10" s="40"/>
       <c r="AF10" s="40"/>

--- a/blueprint-jira-better-excel/Ursa-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Ursa-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{B3F9DC95-024A-48B7-93F2-83413C12723D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{B1A4FCDA-3292-45D3-86AA-0F502C2B0ABB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="289">
   <si>
     <t>Status</t>
   </si>
@@ -814,9 +814,6 @@
     <t>Time Elapsed Glossary</t>
   </si>
   <si>
-    <t>$[SUBSTITUTE(SUBSTITUTE(AE2, "itan", ""), "aturn", "")]</t>
-  </si>
-  <si>
     <t>T1</t>
   </si>
   <si>
@@ -914,6 +911,9 @@
   </si>
   <si>
     <t>Sum of Epic Decomposed</t>
+  </si>
+  <si>
+    <t>$[SUBSTITUTE(SUBSTITUTE(AE2, "rsa", ""), "itan", "")]</t>
   </si>
 </sst>
 </file>
@@ -1839,10 +1839,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0</c:v>
+                  <c:v>1.4705882352941176E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.98529411764705888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2352,7 +2352,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.25</c:v>
@@ -3809,7 +3809,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>150</c:v>
@@ -4154,7 +4154,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>200</c:v>
@@ -4227,7 +4227,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4302,7 +4302,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>180</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>180</c:v>
@@ -4375,7 +4375,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50</c:v>
@@ -5016,10 +5016,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0</c:v>
+                  <c:v>1.4705882352941176E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.98529411764705888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5535,7 +5535,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.25</c:v>
@@ -7001,7 +7001,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>150</c:v>
@@ -7556,7 +7556,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>200</c:v>
@@ -7629,7 +7629,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -7704,7 +7704,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>180</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>180</c:v>
@@ -7777,7 +7777,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50</c:v>
@@ -8377,10 +8377,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0</c:v>
+                  <c:v>1.4705882352941176E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.98529411764705888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8890,7 +8890,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.25</c:v>
@@ -9337,7 +9337,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>150</c:v>
@@ -9682,7 +9682,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>200</c:v>
@@ -9755,7 +9755,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -9830,7 +9830,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>180</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>180</c:v>
@@ -9903,7 +9903,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50</c:v>
@@ -14620,9 +14620,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>_TeamVelocityData!$B$6:$B$12</c:f>
+              <c:f>_TeamVelocityData!$B$6:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>U1</c:v>
                 </c:pt>
@@ -14641,15 +14641,18 @@
                 <c:pt idx="5">
                   <c:v>U6</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>U7</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>_TeamVelocityData!$C$6:$C$12</c:f>
+              <c:f>_TeamVelocityData!$C$6:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -15097,7 +15100,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.77501406162114872</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.77501406162114872</c:v>
@@ -20161,7 +20164,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>450</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>450</c:v>
@@ -20506,7 +20509,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2000.125</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2000.125</c:v>
@@ -20579,7 +20582,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -20654,7 +20657,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>540</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>540</c:v>
@@ -20727,7 +20730,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1550.125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1550.125</c:v>
@@ -22233,10 +22236,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0</c:v>
+                  <c:v>1.4705882352941176E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.98529411764705888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41043,7 +41046,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>0%</a:t>
+            <a:t>1%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41684,7 +41687,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>0%</a:t>
+            <a:t>1%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42360,7 +42363,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>0%</a:t>
+            <a:t>1%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42867,7 +42870,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>0%</a:t>
+            <a:t>1%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42884,7 +42887,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43675.652392824071" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43677.650165856481" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -43120,8 +43123,8 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Sprint Label" numFmtId="0">
-      <sharedItems containsBlank="1" count="56">
-        <s v="$[SUBSTITUTE(SUBSTITUTE(AE2, &quot;itan&quot;, &quot;&quot;), &quot;aturn&quot;, &quot;&quot;)]"/>
+      <sharedItems containsBlank="1" count="57">
+        <s v="$[SUBSTITUTE(SUBSTITUTE(AE2, &quot;rsa&quot;, &quot;&quot;), &quot;itan&quot;, &quot;&quot;)]"/>
         <m/>
         <s v="U1"/>
         <s v="U2"/>
@@ -43161,6 +43164,7 @@
         <s v="$[SUBSTITUTE(AE2, &quot;uasar&quot;, &quot;&quot;)]" u="1"/>
         <s v="Q4" u="1"/>
         <s v="S7" u="1"/>
+        <s v="$[SUBSTITUTE(SUBSTITUTE(AE2, &quot;itan&quot;, &quot;&quot;), &quot;aturn&quot;, &quot;&quot;)]" u="1"/>
         <s v="R2" u="1"/>
         <s v="$[= SUBSTITUTE('Last Sprint', &quot;uasar&quot;, &quot;&quot;)]" u="1"/>
         <s v="T5" u="1"/>
@@ -48409,2613 +48413,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="12" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="8"/>
-        <item h="1" x="5"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="37"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="46" item="2" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="10" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="50">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="51">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="52">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="53">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="54">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="55">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="57">
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="27"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="53">
-        <item x="0"/>
-        <item m="1" x="45"/>
-        <item m="1" x="16"/>
-        <item m="1" x="25"/>
-        <item m="1" x="46"/>
-        <item m="1" x="20"/>
-        <item m="1" x="26"/>
-        <item m="1" x="47"/>
-        <item m="1" x="21"/>
-        <item m="1" x="9"/>
-        <item m="1" x="27"/>
-        <item m="1" x="49"/>
-        <item m="1" x="22"/>
-        <item m="1" x="31"/>
-        <item m="1" x="50"/>
-        <item m="1" x="11"/>
-        <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item m="1" x="15"/>
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
-        <item x="1"/>
-        <item m="1" x="38"/>
-        <item m="1" x="39"/>
-        <item m="1" x="40"/>
-        <item m="1" x="41"/>
-        <item m="1" x="42"/>
-        <item m="1" x="43"/>
-        <item m="1" x="44"/>
-        <item m="1" x="28"/>
-        <item m="1" x="29"/>
-        <item m="1" x="30"/>
-        <item m="1" x="33"/>
-        <item m="1" x="34"/>
-        <item m="1" x="35"/>
-        <item m="1" x="36"/>
-        <item m="1" x="48"/>
-        <item m="1" x="32"/>
-        <item m="1" x="23"/>
-        <item m="1" x="51"/>
-        <item m="1" x="37"/>
-        <item m="1" x="24"/>
-        <item m="1" x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="45" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="57">
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="27"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="28">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="29">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="11" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
   <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
@@ -51418,7 +48815,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
@@ -51530,9 +48927,2101 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="8"/>
+        <item h="1" x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="37"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="46" item="2" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="10" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B5:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="58">
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="27"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="53">
+        <item x="0"/>
+        <item m="1" x="45"/>
+        <item m="1" x="16"/>
+        <item m="1" x="25"/>
+        <item m="1" x="46"/>
+        <item m="1" x="20"/>
+        <item m="1" x="26"/>
+        <item m="1" x="47"/>
+        <item m="1" x="21"/>
+        <item m="1" x="9"/>
+        <item m="1" x="27"/>
+        <item m="1" x="49"/>
+        <item m="1" x="22"/>
+        <item m="1" x="31"/>
+        <item m="1" x="50"/>
+        <item m="1" x="11"/>
+        <item m="1" x="12"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item m="1" x="15"/>
+        <item m="1" x="17"/>
+        <item m="1" x="18"/>
+        <item m="1" x="19"/>
+        <item x="1"/>
+        <item m="1" x="38"/>
+        <item m="1" x="39"/>
+        <item m="1" x="40"/>
+        <item m="1" x="41"/>
+        <item m="1" x="42"/>
+        <item m="1" x="43"/>
+        <item m="1" x="44"/>
+        <item m="1" x="28"/>
+        <item m="1" x="29"/>
+        <item m="1" x="30"/>
+        <item m="1" x="33"/>
+        <item m="1" x="34"/>
+        <item m="1" x="35"/>
+        <item m="1" x="36"/>
+        <item m="1" x="48"/>
+        <item m="1" x="32"/>
+        <item m="1" x="23"/>
+        <item m="1" x="51"/>
+        <item m="1" x="37"/>
+        <item m="1" x="24"/>
+        <item m="1" x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="30" item="45" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="58">
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="27"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -51575,6 +51064,232 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="11" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="13" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51657,10 +51372,9 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="4">
+  <pageFields count="3">
     <pageField fld="32" item="7" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="11" hier="-1"/>
     <pageField fld="45" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="5">
@@ -51670,7 +51384,7 @@
     <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
     <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
   </dataFields>
-  <chartFormats count="21">
+  <chartFormats count="15">
     <chartFormat chart="0" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -51812,60 +51526,6 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -51879,9 +51539,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -51905,12 +51565,12 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
       <items count="15">
         <item x="0"/>
+        <item x="1"/>
         <item m="1" x="9"/>
         <item m="1" x="7"/>
-        <item x="1"/>
         <item m="1" x="11"/>
         <item m="1" x="13"/>
         <item m="1" x="8"/>
@@ -51929,37 +51589,37 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="9">
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item m="1" x="6"/>
         <item m="1" x="7"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item m="1" x="4"/>
         <item m="1" x="5"/>
-        <item x="3"/>
+        <item h="1" x="3"/>
         <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51970,24 +51630,58 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
   <pageFields count="3">
-    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="32" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="13" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -52001,7 +51695,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
@@ -52345,163 +52039,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item h="1" x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item h="1" x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
@@ -52937,6 +52475,477 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="18" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="12" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="11" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -54994,7 +55003,7 @@
         <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -55160,7 +55169,7 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B6" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C6" s="20">
         <v>100</v>
@@ -55177,73 +55186,77 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B7" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C7" s="20">
         <v>60</v>
       </c>
       <c r="K7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B8" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C8" s="20">
         <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B9" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C9" s="20">
         <v>60</v>
       </c>
       <c r="K9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B10" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C10" s="20">
         <v>60</v>
       </c>
       <c r="K10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B11" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C11" s="20">
         <v>60</v>
       </c>
       <c r="K11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B12" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="20">
-        <v>370</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="C12" s="20"/>
       <c r="K12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B13" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="20">
+        <v>370</v>
+      </c>
       <c r="K13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M13" s="20"/>
     </row>
@@ -55317,7 +55330,7 @@
         <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -55411,7 +55424,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E16" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Ursa", "") &amp; " Progress"</f>
@@ -55459,7 +55472,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.06640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.06640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
@@ -55488,7 +55501,7 @@
         <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -55585,7 +55598,7 @@
         <v>135</v>
       </c>
       <c r="C24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.45">
@@ -55622,7 +55635,7 @@
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B30" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C30" s="20">
         <v>1</v>
@@ -55630,19 +55643,19 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B31" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C31" s="20"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B32" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C32" s="20"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B33" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C33" s="20">
         <v>1</v>
@@ -55650,19 +55663,19 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B34" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C34" s="20"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B35" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C35" s="20"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B36" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C36" s="20"/>
     </row>
@@ -55686,7 +55699,7 @@
   <dimension ref="A1:AV105"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C3" sqref="C3"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -55849,7 +55862,7 @@
         <v>145</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>44</v>
@@ -55885,7 +55898,7 @@
         <v>217</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:48" s="5" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
@@ -55983,7 +55996,7 @@
         <v>142</v>
       </c>
       <c r="AF2" s="15" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="AG2" s="15" t="s">
         <v>136</v>
@@ -55995,7 +56008,7 @@
         <v>146</v>
       </c>
       <c r="AJ2" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AK2" s="14" t="s">
         <v>49</v>
@@ -56057,16 +56070,16 @@
       </c>
       <c r="W4" s="4"/>
       <c r="AE4" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI4" s="5" t="s">
         <v>147</v>
       </c>
       <c r="AJ4" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AL4" s="4" t="s">
         <v>223</v>
@@ -56105,13 +56118,13 @@
       </c>
       <c r="W5" s="4"/>
       <c r="AE5" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AI5" s="5" t="s">
         <v>175</v>
       </c>
       <c r="AJ5" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AL5" s="4" t="s">
         <v>223</v>
@@ -56154,13 +56167,13 @@
       </c>
       <c r="W6" s="4"/>
       <c r="AE6" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AI6" s="5" t="s">
         <v>148</v>
       </c>
       <c r="AJ6" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AL6" s="4" t="s">
         <v>223</v>
@@ -56200,7 +56213,7 @@
       </c>
       <c r="W7" s="4"/>
       <c r="AE7" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AI7" s="5" t="s">
         <v>149</v>
@@ -56240,7 +56253,7 @@
       </c>
       <c r="W8" s="4"/>
       <c r="AE8" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AI8" s="5" t="s">
         <v>151</v>
@@ -56283,7 +56296,7 @@
       </c>
       <c r="W9" s="4"/>
       <c r="AE9" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AI9" s="5" t="s">
         <v>150</v>
@@ -56326,7 +56339,7 @@
       </c>
       <c r="W10" s="4"/>
       <c r="AE10" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI10" s="5" t="s">
         <v>152</v>
@@ -56366,7 +56379,7 @@
       </c>
       <c r="W11" s="4"/>
       <c r="AE11" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AL11" s="4" t="s">
         <v>223</v>
@@ -56400,10 +56413,10 @@
       </c>
       <c r="W12" s="4"/>
       <c r="AE12" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF12" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AL12" s="4" t="s">
         <v>58</v>
@@ -56435,10 +56448,10 @@
       </c>
       <c r="W13" s="4"/>
       <c r="AE13" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF13" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
@@ -56471,10 +56484,10 @@
       </c>
       <c r="W14" s="4"/>
       <c r="AE14" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
@@ -56505,10 +56518,10 @@
       </c>
       <c r="W15" s="4"/>
       <c r="AE15" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF15" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AL15" s="4"/>
       <c r="AM15" s="4"/>
@@ -56534,10 +56547,10 @@
         <v>10</v>
       </c>
       <c r="AE16" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF16" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AS16" s="5" t="s">
         <v>241</v>
@@ -56560,10 +56573,10 @@
         <v>10</v>
       </c>
       <c r="AE17" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF17" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AS17" s="5" t="s">
         <v>242</v>
@@ -56586,10 +56599,10 @@
         <v>10</v>
       </c>
       <c r="AE18" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF18" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AS18" s="5" t="s">
         <v>243</v>
@@ -56612,10 +56625,10 @@
         <v>10</v>
       </c>
       <c r="AE19" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF19" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AS19" s="5" t="s">
         <v>244</v>
@@ -56638,10 +56651,10 @@
         <v>10</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF20" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AS20" s="5" t="s">
         <v>245</v>
@@ -56664,10 +56677,10 @@
         <v>10</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF21" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AS21" s="5" t="s">
         <v>246</v>
@@ -56690,10 +56703,10 @@
         <v>10</v>
       </c>
       <c r="AE22" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF22" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AS22" s="5" t="s">
         <v>247</v>
@@ -56710,10 +56723,10 @@
         <v>105</v>
       </c>
       <c r="AE23" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF23" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AT23" s="5" t="s">
         <v>218</v>
@@ -56727,10 +56740,10 @@
         <v>106</v>
       </c>
       <c r="AE24" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF24" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AT24" s="5" t="s">
         <v>218</v>
@@ -56744,10 +56757,10 @@
         <v>107</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF25" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AT25" s="5" t="s">
         <v>218</v>
@@ -56979,7 +56992,7 @@
         <v>75</v>
       </c>
       <c r="AE37" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AT37" s="5" t="s">
         <v>218</v>
@@ -57018,10 +57031,10 @@
         <v>78</v>
       </c>
       <c r="AF40" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG40" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AH40" s="5" t="s">
         <v>155</v>
@@ -57044,10 +57057,10 @@
         <v>79</v>
       </c>
       <c r="AF41" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG41" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AH41" s="5" t="s">
         <v>156</v>
@@ -57070,10 +57083,10 @@
         <v>80</v>
       </c>
       <c r="AF42" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AG42" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AH42" s="5" t="s">
         <v>157</v>
@@ -57096,10 +57109,10 @@
         <v>81</v>
       </c>
       <c r="AF43" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG43" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AH43" s="5" t="s">
         <v>158</v>
@@ -57122,10 +57135,10 @@
         <v>82</v>
       </c>
       <c r="AF44" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG44" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AH44" s="5" t="s">
         <v>159</v>
@@ -57148,10 +57161,10 @@
         <v>83</v>
       </c>
       <c r="AF45" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG45" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AH45" s="5" t="s">
         <v>158</v>
@@ -57174,10 +57187,10 @@
         <v>84</v>
       </c>
       <c r="AF46" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG46" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AT46" s="5" t="s">
         <v>218</v>
@@ -57213,10 +57226,10 @@
         <v>81</v>
       </c>
       <c r="AF49" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG49" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AH49" s="5" t="s">
         <v>155</v>
@@ -57236,7 +57249,7 @@
         <v>62</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P50" s="5">
         <v>200</v>
@@ -57248,7 +57261,7 @@
         <v>180</v>
       </c>
       <c r="AG50" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ50" s="5" t="s">
         <v>58</v>
@@ -57277,7 +57290,7 @@
         <v>62</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P51" s="5">
         <v>200</v>
@@ -57289,10 +57302,10 @@
         <v>180</v>
       </c>
       <c r="AG51" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ51" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AL51" s="4" t="s">
         <v>223</v>
@@ -57323,7 +57336,7 @@
         <v>94</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N52" s="5">
         <v>10</v>
@@ -57338,13 +57351,13 @@
         <v>180</v>
       </c>
       <c r="AG52" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI52" s="5" t="s">
         <v>147</v>
       </c>
       <c r="AJ52" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AL52" s="4" t="s">
         <v>223</v>
@@ -57373,7 +57386,7 @@
         <v>96</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N53" s="5">
         <v>10</v>
@@ -57385,7 +57398,7 @@
         <v>150</v>
       </c>
       <c r="AG53" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI53" s="5" t="s">
         <v>175</v>
@@ -57408,7 +57421,7 @@
         <v>97</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N54" s="5">
         <v>10</v>
@@ -57420,7 +57433,7 @@
         <v>150</v>
       </c>
       <c r="AG54" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI54" s="5" t="s">
         <v>148</v>
@@ -57446,7 +57459,7 @@
         <v>10</v>
       </c>
       <c r="AG55" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI55" s="5" t="s">
         <v>149</v>
@@ -57472,7 +57485,7 @@
         <v>10</v>
       </c>
       <c r="AG56" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI56" s="5" t="s">
         <v>151</v>
@@ -57500,7 +57513,7 @@
         <v>20</v>
       </c>
       <c r="AG57" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI57" s="5" t="s">
         <v>147</v>
@@ -57528,7 +57541,7 @@
         <v>20</v>
       </c>
       <c r="AG58" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI58" s="5" t="s">
         <v>175</v>
@@ -57556,7 +57569,7 @@
         <v>20</v>
       </c>
       <c r="AG59" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI59" s="5" t="s">
         <v>148</v>
@@ -57584,7 +57597,7 @@
         <v>20</v>
       </c>
       <c r="AG60" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI60" s="5" t="s">
         <v>149</v>
@@ -57612,7 +57625,7 @@
         <v>20</v>
       </c>
       <c r="AG61" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI61" s="5" t="s">
         <v>151</v>
@@ -57640,7 +57653,7 @@
         <v>30</v>
       </c>
       <c r="AG62" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI62" s="5" t="s">
         <v>147</v>
@@ -57668,7 +57681,7 @@
         <v>30</v>
       </c>
       <c r="AG63" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI63" s="5" t="s">
         <v>175</v>
@@ -57696,7 +57709,7 @@
         <v>30</v>
       </c>
       <c r="AG64" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI64" s="5" t="s">
         <v>148</v>
@@ -57724,7 +57737,7 @@
         <v>30</v>
       </c>
       <c r="AG65" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI65" s="5" t="s">
         <v>149</v>
@@ -57752,7 +57765,7 @@
         <v>30</v>
       </c>
       <c r="AG66" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI66" s="5" t="s">
         <v>151</v>
@@ -57780,7 +57793,7 @@
         <v>40</v>
       </c>
       <c r="AG67" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI67" s="5" t="s">
         <v>147</v>
@@ -57808,7 +57821,7 @@
         <v>40</v>
       </c>
       <c r="AG68" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI68" s="5" t="s">
         <v>175</v>
@@ -57836,7 +57849,7 @@
         <v>40</v>
       </c>
       <c r="AG69" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI69" s="5" t="s">
         <v>148</v>
@@ -57864,7 +57877,7 @@
         <v>40</v>
       </c>
       <c r="AG70" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI70" s="5" t="s">
         <v>149</v>
@@ -57892,7 +57905,7 @@
         <v>40</v>
       </c>
       <c r="AG71" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI71" s="5" t="s">
         <v>151</v>
@@ -57923,10 +57936,10 @@
         <v>200</v>
       </c>
       <c r="AG73" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ73" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AT73" s="5" t="s">
         <v>218</v>
@@ -57943,10 +57956,10 @@
         <v>200</v>
       </c>
       <c r="AG74" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ74" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AT74" s="5" t="s">
         <v>218</v>
@@ -57965,7 +57978,7 @@
         <v>200</v>
       </c>
       <c r="AG75" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ75" s="10" t="s">
         <v>185</v>
@@ -57985,7 +57998,7 @@
         <v>200</v>
       </c>
       <c r="AG76" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ76" s="10" t="s">
         <v>186</v>
@@ -58005,10 +58018,10 @@
         <v>200</v>
       </c>
       <c r="AG77" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ77" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AL77" s="4"/>
       <c r="AT77" s="5" t="s">
@@ -58032,10 +58045,10 @@
         <v>200</v>
       </c>
       <c r="AF78" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG78" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ78" s="5" t="s">
         <v>58</v>
@@ -58061,10 +58074,10 @@
         <v>200.125</v>
       </c>
       <c r="AF79" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG79" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ79" s="5" t="s">
         <v>238</v>
@@ -58093,13 +58106,13 @@
         <v>200</v>
       </c>
       <c r="AF80" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AG80" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ80" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AL80" s="4" t="s">
         <v>56</v>
@@ -58122,7 +58135,7 @@
         <v>30</v>
       </c>
       <c r="AF81" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AL81" s="4" t="s">
         <v>52</v>
@@ -58145,7 +58158,7 @@
         <v>30</v>
       </c>
       <c r="AF82" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AL82" s="4" t="s">
         <v>223</v>
@@ -58168,7 +58181,7 @@
         <v>30</v>
       </c>
       <c r="AF83" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AL83" s="4" t="s">
         <v>53</v>
@@ -58191,7 +58204,7 @@
         <v>30</v>
       </c>
       <c r="AF84" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AL84" s="4" t="s">
         <v>55</v>
@@ -58214,7 +58227,7 @@
         <v>30</v>
       </c>
       <c r="AF85" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AL85" s="4" t="s">
         <v>56</v>
@@ -58237,7 +58250,7 @@
         <v>30</v>
       </c>
       <c r="AF86" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AL86" s="4" t="s">
         <v>52</v>
@@ -58260,7 +58273,7 @@
         <v>30</v>
       </c>
       <c r="AF87" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AL87" s="4" t="s">
         <v>223</v>
@@ -58283,7 +58296,7 @@
         <v>30</v>
       </c>
       <c r="AF88" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AL88" s="4" t="s">
         <v>53</v>
@@ -58306,7 +58319,7 @@
         <v>30</v>
       </c>
       <c r="AF89" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AL89" s="4" t="s">
         <v>55</v>
@@ -58329,7 +58342,7 @@
         <v>30</v>
       </c>
       <c r="AF90" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AL90" s="4" t="s">
         <v>56</v>
@@ -58352,7 +58365,7 @@
         <v>30</v>
       </c>
       <c r="AF91" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AL91" s="4" t="s">
         <v>52</v>
@@ -58375,7 +58388,7 @@
         <v>30</v>
       </c>
       <c r="AF92" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AT92" s="5" t="s">
         <v>218</v>
@@ -58750,9 +58763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -58760,9 +58771,9 @@
     <col min="2" max="2" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.9296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -58790,7 +58801,7 @@
         <v>154</v>
       </c>
       <c r="K1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L1" t="s">
         <v>253</v>
@@ -58799,35 +58810,35 @@
         <v>135</v>
       </c>
       <c r="N1" t="s">
+        <v>267</v>
+      </c>
+      <c r="O1" t="s">
         <v>268</v>
       </c>
-      <c r="O1" t="s">
-        <v>269</v>
-      </c>
       <c r="P1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q1" s="79" t="s">
         <v>135</v>
       </c>
       <c r="R1" s="79"/>
       <c r="S1" s="79" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T1" s="79"/>
       <c r="U1" s="79" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="V1" s="79"/>
       <c r="W1" s="79" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="X1" s="79"/>
       <c r="AB1" s="16" t="s">
         <v>135</v>
       </c>
       <c r="AC1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.45">
@@ -58836,7 +58847,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0</v>
+        <v>1.4705882352941176E-2</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -58914,7 +58925,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>1</v>
+        <v>0.98529411764705888</v>
       </c>
       <c r="D3" s="26">
         <v>43677</v>
@@ -58930,52 +58941,44 @@
         <v>0</v>
       </c>
       <c r="M3" s="78">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.77501406162114872</v>
+        <v>0</v>
       </c>
       <c r="N3" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Version Compare")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Version Compare")</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O3" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Traces")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Traces")</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="P3" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Process Artifact")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Process Artifact")</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="40">
         <f>$Q$25*(100%-K3)</f>
         <v>420</v>
       </c>
       <c r="R3" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="S3" s="40">
         <f>$Q$26*(100%-K3)</f>
         <v>150</v>
       </c>
       <c r="T3" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Version Compare")</f>
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="U3" s="40">
         <f>$Q$27*(100%-L3)</f>
         <v>120</v>
       </c>
       <c r="V3" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Traces")</f>
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="W3" s="40">
         <f>$Q$28*(100%-K3)</f>
         <v>55</v>
       </c>
       <c r="X3" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Process Artifact")</f>
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="Z3" s="32">
         <v>43682</v>
@@ -58993,7 +58996,7 @@
         <v>43774</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H4" s="24">
         <v>43677</v>
@@ -59077,7 +59080,7 @@
         <v>181</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H5" s="24">
         <f>I4+1</f>
@@ -59150,10 +59153,10 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43675</v>
+        <v>43677</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H6" s="24">
         <f>I5+1</f>
@@ -59219,7 +59222,7 @@
       <c r="D7" s="21"/>
       <c r="E7" s="20"/>
       <c r="G7" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H7" s="24">
         <f t="shared" ref="H7:H9" si="9">I6+1</f>
@@ -59267,7 +59270,7 @@
       <c r="X7" s="42"/>
       <c r="Z7" s="32"/>
       <c r="AB7" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AC7" s="20">
         <v>200</v>
@@ -59280,7 +59283,7 @@
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="G8" s="23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H8" s="24">
         <f t="shared" si="9"/>
@@ -59328,7 +59331,7 @@
       <c r="X8" s="42"/>
       <c r="Z8" s="32"/>
       <c r="AB8" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AC8" s="20">
         <v>200</v>
@@ -59339,13 +59342,13 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A9" s="39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="G9" s="67" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H9" s="68">
         <f t="shared" si="9"/>
@@ -59393,7 +59396,7 @@
       <c r="X9" s="42"/>
       <c r="Z9" s="32"/>
       <c r="AB9" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AC9" s="20">
         <v>200</v>
@@ -59411,7 +59414,7 @@
         <v>0.25</v>
       </c>
       <c r="G10" s="72" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H10" s="73">
         <f t="shared" ref="H10" si="11">I9+1</f>
@@ -59519,7 +59522,7 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A13" s="39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="24"/>
@@ -59616,7 +59619,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="39" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="24"/>
@@ -59724,7 +59727,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0</v>
+        <v>1.4705882352941176E-2</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
@@ -59733,7 +59736,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>1</v>
+        <v>0.98529411764705888</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
@@ -59741,19 +59744,19 @@
         <v>135</v>
       </c>
       <c r="E24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>135</v>
       </c>
       <c r="H24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>135</v>
       </c>
       <c r="K24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P24" t="s">
         <v>221</v>
@@ -59767,7 +59770,7 @@
         <v>135</v>
       </c>
       <c r="B25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>9</v>
@@ -59806,22 +59809,22 @@
         <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J26" s="16" t="s">
         <v>20</v>
       </c>
       <c r="K26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q26">
         <v>150</v>
@@ -59853,7 +59856,7 @@
         <v>218</v>
       </c>
       <c r="P27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q27">
         <v>120</v>
@@ -59865,7 +59868,7 @@
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q28" s="16">
         <v>55</v>
@@ -60030,7 +60033,7 @@
         <v>135</v>
       </c>
       <c r="B36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
@@ -60044,19 +60047,19 @@
         <v>135</v>
       </c>
       <c r="E37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>135</v>
       </c>
       <c r="H37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J37" s="16" t="s">
         <v>135</v>
       </c>
       <c r="K37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
@@ -60090,19 +60093,19 @@
         <v>20</v>
       </c>
       <c r="E39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G39" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J39" s="16" t="s">
         <v>20</v>
       </c>
       <c r="K39" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
@@ -60198,7 +60201,7 @@
         <v>135</v>
       </c>
       <c r="B51" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>140</v>
@@ -60245,7 +60248,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B55" s="20">
         <v>600</v>
@@ -60259,7 +60262,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B56" s="20">
         <v>200</v>
@@ -60273,7 +60276,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B57" s="20">
         <v>400</v>
@@ -60445,7 +60448,7 @@
       <c r="J1" s="81"/>
       <c r="K1" s="81"/>
       <c r="L1" s="81" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M1" s="81"/>
       <c r="N1" s="81"/>
@@ -60455,7 +60458,7 @@
       <c r="R1" s="81"/>
       <c r="S1" s="81"/>
       <c r="T1" s="81" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="U1" s="81"/>
       <c r="V1" s="81"/>
@@ -60465,7 +60468,7 @@
       <c r="Z1" s="81"/>
       <c r="AA1" s="81"/>
       <c r="AB1" s="81" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AC1" s="81"/>
       <c r="AD1" s="81"/>
@@ -60587,137 +60590,121 @@
       <c r="B3" s="56"/>
       <c r="C3" s="56"/>
       <c r="D3" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
-        <v>2000.125</v>
+        <v>435</v>
       </c>
       <c r="E3" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>420</v>
       </c>
       <c r="F3" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="G3" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
-        <v>540</v>
+        <v>350</v>
       </c>
       <c r="H3" s="40">
         <f t="shared" ref="H3:H4" si="0">D3-I3</f>
-        <v>1550.125</v>
+        <v>0</v>
       </c>
       <c r="I3" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="J3" s="33">
         <f t="shared" ref="J3:J4" si="1" xml:space="preserve"> G3/D3</f>
-        <v>0.2699831260546216</v>
+        <v>0.8045977011494253</v>
       </c>
       <c r="K3" s="33">
         <f t="shared" ref="K3:K4" si="2" xml:space="preserve"> H3/D3</f>
-        <v>0.77501406162114872</v>
+        <v>0</v>
       </c>
       <c r="L3" s="59">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="M3" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>150</v>
       </c>
       <c r="N3" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="O3" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="P3" s="40">
         <f t="shared" ref="P3:P4" si="3">L3-Q3</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="R3" s="33">
         <f t="shared" ref="R3:R4" si="4" xml:space="preserve"> O3/L3</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="S3" s="33">
         <f t="shared" ref="S3:S4" si="5" xml:space="preserve"> P3/L3</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="T3" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="U3" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>120</v>
       </c>
       <c r="V3" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="W3" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
-        <v>180</v>
+        <v>103</v>
       </c>
       <c r="X3" s="40">
         <f t="shared" ref="X3:X4" si="6">T3-Y3</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="Z3" s="33">
         <f t="shared" ref="Z3:Z4" si="7" xml:space="preserve"> W3/T3</f>
-        <v>0.9</v>
+        <v>0.8728813559322034</v>
       </c>
       <c r="AA3" s="33">
         <f t="shared" ref="AA3:AA4" si="8">X3/T3</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="AC3" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>55</v>
       </c>
       <c r="AD3" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AE3" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="AF3" s="40">
         <f t="shared" ref="AF3:AF4" si="9">AB3-AG3</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AH3" s="33">
         <f t="shared" ref="AH3:AH4" si="10" xml:space="preserve"> AE3/AB3</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AI3" s="33">
         <f t="shared" ref="AI3:AI4" si="11">AF3/AB3</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B4" s="60">
         <v>43677</v>
@@ -60856,7 +60843,7 @@
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B5" s="60">
         <v>43691</v>
@@ -60911,7 +60898,7 @@
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B6" s="60">
         <v>43705</v>
@@ -60966,7 +60953,7 @@
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B7" s="60">
         <v>43719</v>
@@ -61022,12 +61009,12 @@
         <v>135</v>
       </c>
       <c r="AM7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B8" s="60">
         <v>43733</v>
@@ -61088,7 +61075,7 @@
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B9" s="60">
         <v>43747</v>
@@ -61143,7 +61130,7 @@
     </row>
     <row r="10" spans="1:42" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B10" s="60">
         <v>43761</v>
@@ -61280,10 +61267,10 @@
         <v>112</v>
       </c>
       <c r="AN12" t="s">
+        <v>286</v>
+      </c>
+      <c r="AO12" t="s">
         <v>287</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>288</v>
       </c>
       <c r="AP12" t="s">
         <v>111</v>
@@ -61370,7 +61357,7 @@
       <c r="AH14" s="33"/>
       <c r="AI14" s="33"/>
       <c r="AL14" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AM14" s="20">
         <v>200</v>
@@ -61419,7 +61406,7 @@
       <c r="AH15" s="33"/>
       <c r="AI15" s="33"/>
       <c r="AL15" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AM15" s="20">
         <v>200</v>
@@ -61468,7 +61455,7 @@
       <c r="AH16" s="33"/>
       <c r="AI16" s="33"/>
       <c r="AL16" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AM16" s="20">
         <v>200</v>
@@ -61668,7 +61655,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C16" s="20">
         <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
@@ -61681,42 +61668,42 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>

--- a/blueprint-jira-better-excel/Ursa-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Ursa-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{B1A4FCDA-3292-45D3-86AA-0F502C2B0ABB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{D9A411DF-0054-4C4D-8563-922025DCFF0A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId19"/>
+    <pivotCache cacheId="46" r:id="rId19"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1839,10 +1839,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>1.4705882352941176E-2</c:v>
+                  <c:v>0.14925373134328357</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98529411764705888</c:v>
+                  <c:v>0.85074626865671643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2355,6 +2355,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -3812,6 +3815,9 @@
                   <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -4157,6 +4163,9 @@
                   <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -4230,6 +4239,9 @@
                   <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4305,6 +4317,9 @@
                   <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4378,6 +4393,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -5016,10 +5034,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>1.4705882352941176E-2</c:v>
+                  <c:v>0.14925373134328357</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98529411764705888</c:v>
+                  <c:v>0.85074626865671643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5538,6 +5556,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -7004,6 +7025,9 @@
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7559,6 +7583,9 @@
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -7632,6 +7659,9 @@
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7707,6 +7737,9 @@
                   <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -7780,6 +7813,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -8377,10 +8413,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>1.4705882352941176E-2</c:v>
+                  <c:v>0.14925373134328357</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98529411764705888</c:v>
+                  <c:v>0.85074626865671643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8893,6 +8929,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -9340,6 +9379,9 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -9685,6 +9727,9 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -9758,6 +9803,9 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9833,6 +9881,9 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -9906,6 +9957,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -11327,6 +11381,9 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1460.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -11456,6 +11513,9 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
@@ -15103,6 +15163,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.77501406162114872</c:v>
                 </c:pt>
               </c:numCache>
@@ -15337,7 +15400,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint 1 Progress</c:v>
+              <c:v>Sprint 2 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -15829,16 +15892,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15994,7 +16054,7 @@
                   </a:schemeClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Titan Bugs by Priority</a:t>
+              <a:t>Ursa Bugs by Priority</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:solidFill>
@@ -20167,6 +20227,9 @@
                   <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
@@ -20512,6 +20575,9 @@
                   <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2000.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -20585,6 +20651,9 @@
                   <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -20660,6 +20729,9 @@
                   <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>540</c:v>
                 </c:pt>
               </c:numCache>
@@ -20733,6 +20805,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1550.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -22236,10 +22311,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>1.4705882352941176E-2</c:v>
+                  <c:v>0.14925373134328357</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98529411764705888</c:v>
+                  <c:v>0.85074626865671643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41046,7 +41121,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1%</a:t>
+            <a:t>15%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41424,7 +41499,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>26</a:t>
+            <a:t>11</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -41687,7 +41762,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1%</a:t>
+            <a:t>15%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42363,7 +42438,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1%</a:t>
+            <a:t>15%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42870,7 +42945,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1%</a:t>
+            <a:t>15%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42887,7 +42962,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43677.650165856481" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43691.625258217595" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -43077,49 +43152,49 @@
         <s v="Ursa5"/>
         <s v="Ursa6"/>
         <s v="Ursa7"/>
-        <s v="Quasar1" u="1"/>
-        <s v="Titan7" u="1"/>
-        <s v="Quasar2" u="1"/>
-        <s v="Quasar3" u="1"/>
-        <s v="Quasar4" u="1"/>
-        <s v="Quasar5" u="1"/>
-        <s v="Quasar6" u="1"/>
         <s v="Pegasus2" u="1"/>
-        <s v="Quasar7" u="1"/>
-        <s v="Quasar8" u="1"/>
-        <s v="Quasar9" u="1"/>
-        <s v="Pegasus5" u="1"/>
-        <s v="Pegasus8" u="1"/>
-        <s v="Quasar12" u="1"/>
-        <s v="Titan3" u="1"/>
-        <s v="Titan6" u="1"/>
-        <s v="Pegasus3" u="1"/>
-        <s v="Pegasus6" u="1"/>
-        <s v="Quasar10" u="1"/>
-        <s v="Saturn1" u="1"/>
-        <s v="Saturn2" u="1"/>
-        <s v="Saturn3" u="1"/>
-        <s v="Quasar13" u="1"/>
-        <s v="Titan2" u="1"/>
-        <s v="Saturn4" u="1"/>
-        <s v="Saturn5" u="1"/>
-        <s v="Saturn6" u="1"/>
-        <s v="Saturn7" u="1"/>
-        <s v="Titan5" u="1"/>
         <s v="Rocket1" u="1"/>
+        <s v="Pegasus7" u="1"/>
         <s v="Rocket2" u="1"/>
         <s v="Rocket3" u="1"/>
+        <s v="Quasar14" u="1"/>
         <s v="Rocket4" u="1"/>
+        <s v="Pegasus1" u="1"/>
+        <s v="Pegasus6" u="1"/>
         <s v="Rocket5" u="1"/>
         <s v="Rocket6" u="1"/>
         <s v="Rocket7" u="1"/>
-        <s v="Pegasus1" u="1"/>
+        <s v="Saturn1" u="1"/>
+        <s v="Quasar13" u="1"/>
+        <s v="Quasar1" u="1"/>
+        <s v="Pegasus5" u="1"/>
+        <s v="Saturn2" u="1"/>
+        <s v="Quasar2" u="1"/>
+        <s v="Saturn3" u="1"/>
+        <s v="Quasar3" u="1"/>
+        <s v="Saturn4" u="1"/>
+        <s v="Titan1" u="1"/>
+        <s v="Quasar12" u="1"/>
+        <s v="Quasar4" u="1"/>
+        <s v="Titan2" u="1"/>
+        <s v="Saturn5" u="1"/>
         <s v="Pegasus4" u="1"/>
-        <s v="Pegasus7" u="1"/>
-        <s v="Titan1" u="1"/>
+        <s v="Titan3" u="1"/>
+        <s v="Quasar5" u="1"/>
+        <s v="Saturn6" u="1"/>
+        <s v="Titan4" u="1"/>
+        <s v="Quasar6" u="1"/>
+        <s v="Saturn7" u="1"/>
+        <s v="Titan5" u="1"/>
+        <s v="Quasar7" u="1"/>
+        <s v="Titan6" u="1"/>
         <s v="Quasar11" u="1"/>
-        <s v="Quasar14" u="1"/>
-        <s v="Titan4" u="1"/>
+        <s v="Titan7" u="1"/>
+        <s v="Quasar8" u="1"/>
+        <s v="Pegasus3" u="1"/>
+        <s v="Pegasus8" u="1"/>
+        <s v="Quasar9" u="1"/>
+        <s v="Quasar10" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Sprint Label" numFmtId="0">
@@ -43133,54 +43208,54 @@
         <s v="U5"/>
         <s v="U6"/>
         <s v="U7"/>
-        <s v="R6" u="1"/>
-        <s v="Q1" u="1"/>
+        <s v="$[SUBSTITUTE(SUBSTITUTE(AE2, &quot;itan&quot;, &quot;&quot;), &quot;aturn&quot;, &quot;&quot;)]" u="1"/>
+        <s v="T1" u="1"/>
+        <s v="T3" u="1"/>
+        <s v="T5" u="1"/>
+        <s v="S2" u="1"/>
+        <s v="Q10" u="1"/>
+        <s v="T7" u="1"/>
+        <s v="Q11" u="1"/>
         <s v="S4" u="1"/>
-        <s v="T2" u="1"/>
-        <s v="Q7" u="1"/>
-        <s v="P2" u="1"/>
+        <s v="R1" u="1"/>
+        <s v="Q12" u="1"/>
+        <s v="S6" u="1"/>
+        <s v="Q13" u="1"/>
+        <s v="R3" u="1"/>
+        <s v="Q14" u="1"/>
         <s v="R5" u="1"/>
-        <s v="S3" u="1"/>
-        <s v="T1" u="1"/>
-        <s v="$[SUBSTITUTE(SUBSTITUTE(AE2, &quot;aturn&quot;, &quot;&quot;), &quot;ocket&quot;, &quot;&quot;)]" u="1"/>
-        <s v="Q6" u="1"/>
-        <s v="P1" u="1"/>
-        <s v="Q10" u="1"/>
-        <s v="Q11" u="1"/>
-        <s v="Q12" u="1"/>
-        <s v="Q13" u="1"/>
-        <s v="Q14" u="1"/>
-        <s v="R4" u="1"/>
-        <s v="T7" u="1"/>
-        <s v="S2" u="1"/>
+        <s v="Q2" u="1"/>
+        <s v="R7" u="1"/>
         <s v="$[SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE2, &quot;ocket&quot;, &quot;&quot;), &quot;uasar&quot;, &quot;&quot;), &quot;egasus&quot;, &quot;&quot;)]" u="1"/>
         <s v="$[SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE3, &quot;ocket&quot;, &quot;&quot;), &quot;uasar&quot;, &quot;&quot;), &quot;egasus&quot;, &quot;&quot;)]" u="1"/>
+        <s v="Q4" u="1"/>
+        <s v="P1" u="1"/>
+        <s v="Q6" u="1"/>
+        <s v="P3" u="1"/>
+        <s v="Q8" u="1"/>
+        <s v="P5" u="1"/>
         <s v="$[=SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE3, &quot;ocket&quot;, &quot;&quot;), &quot;uasar&quot;, &quot;&quot;), &quot;egasus&quot;, &quot;&quot;)]" u="1"/>
+        <s v="T2" u="1"/>
+        <s v="T4" u="1"/>
+        <s v="S1" u="1"/>
+        <s v="T6" u="1"/>
+        <s v="S3" u="1"/>
+        <s v="S5" u="1"/>
+        <s v="R2" u="1"/>
+        <s v="$[SUBSTITUTE(SUBSTITUTE(AE2, &quot;aturn&quot;, &quot;&quot;), &quot;ocket&quot;, &quot;&quot;)]" u="1"/>
+        <s v="S7" u="1"/>
+        <s v="R4" u="1"/>
+        <s v="Q1" u="1"/>
+        <s v="$[SUBSTITUTE(AE2, &quot;uasar&quot;, &quot;&quot;)]" u="1"/>
+        <s v="R6" u="1"/>
+        <s v="Q3" u="1"/>
         <s v="Q5" u="1"/>
-        <s v="R3" u="1"/>
-        <s v="T6" u="1"/>
-        <s v="S1" u="1"/>
+        <s v="P2" u="1"/>
+        <s v="Q7" u="1"/>
+        <s v="P4" u="1"/>
+        <s v="Q9" u="1"/>
+        <s v="$[= SUBSTITUTE('Last Sprint', &quot;uasar&quot;, &quot;&quot;)]" u="1"/>
         <s v="P6" u="1"/>
-        <s v="$[SUBSTITUTE(AE2, &quot;uasar&quot;, &quot;&quot;)]" u="1"/>
-        <s v="Q4" u="1"/>
-        <s v="S7" u="1"/>
-        <s v="$[SUBSTITUTE(SUBSTITUTE(AE2, &quot;itan&quot;, &quot;&quot;), &quot;aturn&quot;, &quot;&quot;)]" u="1"/>
-        <s v="R2" u="1"/>
-        <s v="$[= SUBSTITUTE('Last Sprint', &quot;uasar&quot;, &quot;&quot;)]" u="1"/>
-        <s v="T5" u="1"/>
-        <s v="P5" u="1"/>
-        <s v="Q3" u="1"/>
-        <s v="S6" u="1"/>
-        <s v="R1" u="1"/>
-        <s v="T4" u="1"/>
-        <s v="Q9" u="1"/>
-        <s v="P4" u="1"/>
-        <s v="R7" u="1"/>
-        <s v="Q2" u="1"/>
-        <s v="S5" u="1"/>
-        <s v="T3" u="1"/>
-        <s v="Q8" u="1"/>
-        <s v="P3" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Release" numFmtId="0">
@@ -43191,8 +43266,8 @@
         <s v="Titan"/>
         <s v="Rocket" u="1"/>
         <s v="Saturn" u="1"/>
+        <s v="Quasar" u="1"/>
         <s v="Pegasus" u="1"/>
-        <s v="Quasar" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Priority" numFmtId="0">
@@ -43246,8 +43321,8 @@
         <s v="ngStars"/>
         <s v="Alpha"/>
         <s v="Titan"/>
+        <s v="QA" u="1"/>
         <s v="SoftTeco" u="1"/>
-        <s v="QA" u="1"/>
         <s v="TechComm" u="1"/>
       </sharedItems>
     </cacheField>
@@ -44716,7 +44791,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44765,7 +44840,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44814,7 +44889,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44863,7 +44938,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44912,7 +44987,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44961,7 +45036,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45010,7 +45085,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -48413,3134 +48488,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="12" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="8"/>
-        <item h="1" x="5"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="37"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="46" item="2" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="10" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="50">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="51">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="52">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="53">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="54">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="55">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="B5:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="58">
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="27"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="53">
-        <item x="0"/>
-        <item m="1" x="45"/>
-        <item m="1" x="16"/>
-        <item m="1" x="25"/>
-        <item m="1" x="46"/>
-        <item m="1" x="20"/>
-        <item m="1" x="26"/>
-        <item m="1" x="47"/>
-        <item m="1" x="21"/>
-        <item m="1" x="9"/>
-        <item m="1" x="27"/>
-        <item m="1" x="49"/>
-        <item m="1" x="22"/>
-        <item m="1" x="31"/>
-        <item m="1" x="50"/>
-        <item m="1" x="11"/>
-        <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item m="1" x="15"/>
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
-        <item x="1"/>
-        <item m="1" x="38"/>
-        <item m="1" x="39"/>
-        <item m="1" x="40"/>
-        <item m="1" x="41"/>
-        <item m="1" x="42"/>
-        <item m="1" x="43"/>
-        <item m="1" x="44"/>
-        <item m="1" x="28"/>
-        <item m="1" x="29"/>
-        <item m="1" x="30"/>
-        <item m="1" x="33"/>
-        <item m="1" x="34"/>
-        <item m="1" x="35"/>
-        <item m="1" x="36"/>
-        <item m="1" x="48"/>
-        <item m="1" x="32"/>
-        <item m="1" x="23"/>
-        <item m="1" x="51"/>
-        <item m="1" x="37"/>
-        <item m="1" x="24"/>
-        <item m="1" x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="45" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="28">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="29">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="58">
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="27"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="11" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="13" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51608,8 +48556,8 @@
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="9">
         <item h="1" x="0"/>
+        <item m="1" x="7"/>
         <item m="1" x="6"/>
-        <item m="1" x="7"/>
         <item h="1" x="1"/>
         <item m="1" x="4"/>
         <item m="1" x="5"/>
@@ -51695,8 +48643,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField showAll="0"/>
@@ -52039,9 +48987,2101 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
-  <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="8"/>
+        <item h="1" x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="37"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="46" item="2" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="10" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B5:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="58">
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="15"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="53">
+        <item x="0"/>
+        <item m="1" x="16"/>
+        <item m="1" x="9"/>
+        <item m="1" x="48"/>
+        <item m="1" x="35"/>
+        <item m="1" x="24"/>
+        <item m="1" x="17"/>
+        <item m="1" x="11"/>
+        <item m="1" x="49"/>
+        <item m="1" x="23"/>
+        <item m="1" x="51"/>
+        <item m="1" x="45"/>
+        <item m="1" x="31"/>
+        <item m="1" x="22"/>
+        <item m="1" x="14"/>
+        <item m="1" x="26"/>
+        <item m="1" x="28"/>
+        <item m="1" x="32"/>
+        <item m="1" x="37"/>
+        <item m="1" x="40"/>
+        <item m="1" x="43"/>
+        <item m="1" x="47"/>
+        <item m="1" x="50"/>
+        <item x="1"/>
+        <item m="1" x="10"/>
+        <item m="1" x="12"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="18"/>
+        <item m="1" x="19"/>
+        <item m="1" x="20"/>
+        <item m="1" x="21"/>
+        <item m="1" x="25"/>
+        <item m="1" x="27"/>
+        <item m="1" x="29"/>
+        <item m="1" x="34"/>
+        <item m="1" x="38"/>
+        <item m="1" x="41"/>
+        <item m="1" x="30"/>
+        <item m="1" x="33"/>
+        <item m="1" x="36"/>
+        <item m="1" x="39"/>
+        <item m="1" x="42"/>
+        <item m="1" x="44"/>
+        <item m="1" x="46"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="30" item="46" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="58">
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="15"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -52088,7 +51128,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52108,8 +51148,1116 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="9">
         <item x="0"/>
+        <item m="1" x="7"/>
         <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="11" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item m="1" x="9"/>
         <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="12" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="11" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="13" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+  <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
         <item x="1"/>
         <item m="1" x="4"/>
         <item m="1" x="5"/>
@@ -52497,7 +52645,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52565,8 +52713,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="9">
         <item x="0"/>
+        <item m="1" x="7"/>
         <item m="1" x="6"/>
-        <item m="1" x="7"/>
         <item x="1"/>
         <item m="1" x="4"/>
         <item m="1" x="5"/>
@@ -52619,8 +52767,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -52644,25 +52792,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52687,8 +52817,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="9">
         <item x="0"/>
+        <item m="1" x="7"/>
         <item m="1" x="6"/>
-        <item m="1" x="7"/>
         <item x="1"/>
         <item m="1" x="4"/>
         <item m="1" x="5"/>
@@ -52745,10 +52875,9 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="4">
+  <pageFields count="3">
     <pageField fld="32" item="7" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="11" hier="-1"/>
     <pageField fld="45" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="5">
@@ -52758,7 +52887,7 @@
     <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
     <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
   </dataFields>
-  <chartFormats count="21">
+  <chartFormats count="15">
     <chartFormat chart="0" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -52892,60 +53021,6 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -55194,6 +55269,9 @@
       <c r="K7" t="s">
         <v>255</v>
       </c>
+      <c r="L7">
+        <v>62.5</v>
+      </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B8" s="17" t="s">
@@ -55266,7 +55344,7 @@
       </c>
       <c r="L14">
         <f>SUBTOTAL(109,Table1[R&amp;D])</f>
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="M14">
         <f>SUBTOTAL(109,Table1[Total])</f>
@@ -55316,7 +55394,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Ursa1</v>
+        <v>Ursa2</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -55330,7 +55408,7 @@
         <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -55378,7 +55456,7 @@
         <v>175</v>
       </c>
       <c r="E9" s="20">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -55401,16 +55479,14 @@
       <c r="D12" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="E12" s="20">
-        <v>20</v>
-      </c>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D13" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="20">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -55419,7 +55495,7 @@
       </c>
       <c r="E15">
         <f>GETPIVOTDATA("Story Points", $D$5)</f>
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -55428,7 +55504,7 @@
       </c>
       <c r="E16" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Ursa", "") &amp; " Progress"</f>
-        <v>Sprint 1 Progress</v>
+        <v>Sprint 2 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -56834,7 +56910,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa1</v>
+        <v>Ursa2</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>147</v>
@@ -56858,7 +56934,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa1</v>
+        <v>Ursa2</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>175</v>
@@ -56882,7 +56958,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa1</v>
+        <v>Ursa2</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>148</v>
@@ -56906,7 +56982,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa1</v>
+        <v>Ursa2</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>149</v>
@@ -56930,7 +57006,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa1</v>
+        <v>Ursa2</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>151</v>
@@ -56954,7 +57030,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa1</v>
+        <v>Ursa2</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>150</v>
@@ -56975,7 +57051,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa1</v>
+        <v>Ursa2</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>152</v>
@@ -58771,7 +58847,7 @@
     <col min="2" max="2" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.265625" bestFit="1" customWidth="1"/>
@@ -58846,8 +58922,8 @@
         <v>137</v>
       </c>
       <c r="B2" s="44">
-        <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>1.4705882352941176E-2</v>
+        <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$3:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$3:$Z$9),0%)</f>
+        <v>0.14925373134328357</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -58925,7 +59001,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.98529411764705888</v>
+        <v>0.85074626865671643</v>
       </c>
       <c r="D3" s="26">
         <v>43677</v>
@@ -59018,52 +59094,44 @@
         <v>0.13432835820895522</v>
       </c>
       <c r="M4" s="70">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.77501406162114872</v>
+        <v>0.13</v>
       </c>
       <c r="N4" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Version Compare")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Version Compare")</f>
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="O4" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Traces")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Traces")</f>
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="P4" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Process Artifact")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Process Artifact")</f>
-        <v>0.25</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Q4" s="40">
         <f>$Q$25*(100%-K4)</f>
         <v>363.58208955223881</v>
       </c>
       <c r="R4" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
-        <v>450</v>
+        <v>391</v>
       </c>
       <c r="S4" s="42">
         <f>$Q$26*(100%-K4)</f>
         <v>129.85074626865674</v>
       </c>
       <c r="T4" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Version Compare")</f>
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="U4" s="40">
         <f>$Q$27*(100%-L4)</f>
         <v>103.88059701492539</v>
       </c>
       <c r="V4" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Traces")</f>
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="W4" s="40">
         <f>$Q$28*(100%-K4)</f>
         <v>47.611940298507463</v>
       </c>
       <c r="X4" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Process Artifact")</f>
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="Z4" s="32">
         <v>43710</v>
@@ -59102,30 +59170,54 @@
         <f>SUM($J$4:J5)/SUM($J$4:$J$10)</f>
         <v>0.28358208955223879</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
+      <c r="M5" s="70">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="N5" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Version Compare")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Version Compare")</f>
+        <v>0.25</v>
+      </c>
+      <c r="O5" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Traces")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Traces")</f>
+        <v>0.25</v>
+      </c>
+      <c r="P5" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Process Artifact")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Process Artifact")</f>
+        <v>0.25</v>
+      </c>
       <c r="Q5" s="40">
         <f t="shared" ref="Q5:Q9" si="1">$Q$25*(100%-K5)</f>
         <v>300.8955223880597</v>
       </c>
-      <c r="R5" s="42"/>
+      <c r="R5" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
+        <v>450</v>
+      </c>
       <c r="S5" s="42">
         <f t="shared" ref="S5:S9" si="2">$Q$26*(100%-K5)</f>
         <v>107.46268656716418</v>
       </c>
-      <c r="T5" s="42"/>
+      <c r="T5" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Version Compare")</f>
+        <v>150</v>
+      </c>
       <c r="U5" s="40">
         <f t="shared" ref="U5:U9" si="3">$Q$27*(100%-L5)</f>
         <v>85.97014925373135</v>
       </c>
-      <c r="V5" s="42"/>
+      <c r="V5" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Traces")</f>
+        <v>150</v>
+      </c>
       <c r="W5" s="40">
         <f t="shared" ref="W5:W9" si="4">$Q$28*(100%-K5)</f>
         <v>39.402985074626869</v>
       </c>
-      <c r="X5" s="42"/>
+      <c r="X5" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Process Artifact")</f>
+        <v>150</v>
+      </c>
       <c r="Z5" s="32">
         <v>43752</v>
       </c>
@@ -59153,7 +59245,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43677</v>
+        <v>43691</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>272</v>
@@ -59726,8 +59818,8 @@
         <v>137</v>
       </c>
       <c r="B22" s="44">
-        <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>1.4705882352941176E-2</v>
+        <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$3:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$3:$Z$9),0%)</f>
+        <v>0.14925373134328357</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
@@ -59736,7 +59828,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.98529411764705888</v>
+        <v>0.85074626865671643</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
@@ -60713,132 +60805,116 @@
         <v>43690</v>
       </c>
       <c r="D4" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
-        <v>2000.125</v>
+        <v>448</v>
       </c>
       <c r="E4" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>420</v>
       </c>
       <c r="F4" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="G4" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="H4" s="40">
         <f t="shared" si="0"/>
-        <v>1550.125</v>
+        <v>57</v>
       </c>
       <c r="I4" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
-        <v>450</v>
+        <v>391</v>
       </c>
       <c r="J4" s="33">
         <f t="shared" si="1"/>
-        <v>0.2699831260546216</v>
+        <v>0.8370535714285714</v>
       </c>
       <c r="K4" s="33">
         <f t="shared" si="2"/>
-        <v>0.77501406162114872</v>
+        <v>0.12723214285714285</v>
       </c>
       <c r="L4" s="59">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="M4" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>150</v>
       </c>
       <c r="N4" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="O4" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="P4" s="40">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="Q4" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="R4" s="33">
         <f t="shared" si="4"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="S4" s="33">
         <f t="shared" si="5"/>
-        <v>0.25</v>
+        <v>6.1643835616438353E-2</v>
       </c>
       <c r="T4" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="U4" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>120</v>
       </c>
       <c r="V4" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="W4" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="X4" s="40">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="Y4" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="Z4" s="33">
         <f t="shared" si="7"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="33">
         <f t="shared" si="8"/>
-        <v>0.25</v>
+        <v>0.19166666666666668</v>
       </c>
       <c r="AB4" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="AC4" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>55</v>
       </c>
       <c r="AD4" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AE4" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="AF4" s="40">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="AG4" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="AH4" s="33">
         <f t="shared" si="10"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AI4" s="33">
         <f t="shared" si="11"/>
-        <v>0.25</v>
+        <v>0.29090909090909089</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.45">
@@ -60851,50 +60927,134 @@
       <c r="C5" s="60">
         <v>43704</v>
       </c>
-      <c r="D5" s="57"/>
+      <c r="D5" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
+        <v>2000.125</v>
+      </c>
       <c r="E5" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>420</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="59"/>
+      <c r="F5" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
+        <v>540</v>
+      </c>
+      <c r="H5" s="40">
+        <f t="shared" ref="H5" si="12">D5-I5</f>
+        <v>1550.125</v>
+      </c>
+      <c r="I5" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
+        <v>450</v>
+      </c>
+      <c r="J5" s="33">
+        <f t="shared" ref="J5" si="13" xml:space="preserve"> G5/D5</f>
+        <v>0.2699831260546216</v>
+      </c>
+      <c r="K5" s="33">
+        <f t="shared" ref="K5" si="14" xml:space="preserve"> H5/D5</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="L5" s="59">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
+        <v>200</v>
+      </c>
       <c r="M5" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>150</v>
       </c>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="57"/>
+      <c r="N5" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
+        <v>180</v>
+      </c>
+      <c r="P5" s="40">
+        <f t="shared" ref="P5" si="15">L5-Q5</f>
+        <v>50</v>
+      </c>
+      <c r="Q5" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
+        <v>150</v>
+      </c>
+      <c r="R5" s="33">
+        <f t="shared" ref="R5" si="16" xml:space="preserve"> O5/L5</f>
+        <v>0.9</v>
+      </c>
+      <c r="S5" s="33">
+        <f t="shared" ref="S5" si="17" xml:space="preserve"> P5/L5</f>
+        <v>0.25</v>
+      </c>
+      <c r="T5" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
+        <v>200</v>
+      </c>
       <c r="U5" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>120</v>
       </c>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="57"/>
+      <c r="V5" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
+        <v>180</v>
+      </c>
+      <c r="X5" s="40">
+        <f t="shared" ref="X5" si="18">T5-Y5</f>
+        <v>50</v>
+      </c>
+      <c r="Y5" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
+        <v>150</v>
+      </c>
+      <c r="Z5" s="33">
+        <f t="shared" ref="Z5" si="19" xml:space="preserve"> W5/T5</f>
+        <v>0.9</v>
+      </c>
+      <c r="AA5" s="33">
+        <f t="shared" ref="AA5" si="20">X5/T5</f>
+        <v>0.25</v>
+      </c>
+      <c r="AB5" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
+        <v>200</v>
+      </c>
       <c r="AC5" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>55</v>
       </c>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
+      <c r="AD5" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
+        <v>180</v>
+      </c>
+      <c r="AF5" s="40">
+        <f t="shared" ref="AF5" si="21">AB5-AG5</f>
+        <v>50</v>
+      </c>
+      <c r="AG5" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
+        <v>150</v>
+      </c>
+      <c r="AH5" s="33">
+        <f t="shared" ref="AH5" si="22" xml:space="preserve"> AE5/AB5</f>
+        <v>0.9</v>
+      </c>
+      <c r="AI5" s="33">
+        <f t="shared" ref="AI5" si="23">AF5/AB5</f>
+        <v>0.25</v>
+      </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -61658,20 +61818,24 @@
         <v>255</v>
       </c>
       <c r="C16" s="20">
-        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>1460.125</v>
+        <v>74</v>
       </c>
       <c r="D16" s="20">
-        <f>GETPIVOTDATA("Story Points",$G$5)</f>
-        <v>35</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>256</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
+      <c r="C17" s="20">
+        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <v>1460.125</v>
+      </c>
+      <c r="D17" s="20">
+        <f>GETPIVOTDATA("Story Points",$G$5)</f>
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" t="s">

--- a/blueprint-jira-better-excel/Ursa-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Ursa-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{D9A411DF-0054-4C4D-8563-922025DCFF0A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{58E37FDA-CE7F-498B-9BDA-A53A7B9B7D5A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="46" r:id="rId19"/>
+    <pivotCache cacheId="61" r:id="rId19"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1839,10 +1839,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.14925373134328357</c:v>
+                  <c:v>0.29850746268656714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85074626865671643</c:v>
+                  <c:v>0.70149253731343286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2358,6 +2358,9 @@
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -3818,6 +3821,9 @@
                   <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -4166,6 +4172,9 @@
                   <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -4242,6 +4251,9 @@
                   <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4320,6 +4332,9 @@
                   <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4396,6 +4411,9 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -5034,10 +5052,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.14925373134328357</c:v>
+                  <c:v>0.29850746268656714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85074626865671643</c:v>
+                  <c:v>0.70149253731343286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5559,6 +5577,9 @@
                   <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -7028,6 +7049,9 @@
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7586,6 +7610,9 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -7662,6 +7689,9 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7740,6 +7770,9 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -7816,6 +7849,9 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -8413,10 +8449,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.14925373134328357</c:v>
+                  <c:v>0.29850746268656714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85074626865671643</c:v>
+                  <c:v>0.70149253731343286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8932,6 +8968,9 @@
                   <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -9382,6 +9421,9 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -9730,6 +9772,9 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -9806,6 +9851,9 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9884,6 +9932,9 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -9960,6 +10011,9 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -11384,6 +11438,9 @@
                   <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1460.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -11516,6 +11573,9 @@
                   <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
@@ -15166,6 +15226,9 @@
                   <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.77501406162114872</c:v>
                 </c:pt>
               </c:numCache>
@@ -15400,7 +15463,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint 2 Progress</c:v>
+              <c:v>Sprint 3 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -15889,16 +15952,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20230,6 +20296,9 @@
                   <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
@@ -20578,6 +20647,9 @@
                   <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2000.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -20654,6 +20726,9 @@
                   <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -20732,6 +20807,9 @@
                   <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>540</c:v>
                 </c:pt>
               </c:numCache>
@@ -20808,6 +20886,9 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1550.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -22311,10 +22392,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.14925373134328357</c:v>
+                  <c:v>0.29850746268656714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85074626865671643</c:v>
+                  <c:v>0.70149253731343286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41121,7 +41202,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>15%</a:t>
+            <a:t>30%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41499,7 +41580,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>11</a:t>
+            <a:t>26</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -41762,7 +41843,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>15%</a:t>
+            <a:t>30%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42438,7 +42519,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>15%</a:t>
+            <a:t>30%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42945,7 +43026,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>15%</a:t>
+            <a:t>30%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42962,7 +43043,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43691.625258217595" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43705.31271539352" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -44791,7 +44872,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44840,7 +44921,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44889,7 +44970,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44938,7 +45019,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44987,7 +45068,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45036,7 +45117,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45085,7 +45166,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -48488,8 +48569,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48513,12 +48594,12 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="15">
         <item x="0"/>
-        <item x="1"/>
         <item m="1" x="9"/>
         <item m="1" x="7"/>
+        <item x="1"/>
         <item m="1" x="11"/>
         <item m="1" x="13"/>
         <item m="1" x="8"/>
@@ -48536,45 +48617,45 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="9">
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item m="1" x="7"/>
         <item m="1" x="6"/>
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item m="1" x="4"/>
         <item m="1" x="5"/>
-        <item h="1" x="3"/>
+        <item x="3"/>
         <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
@@ -48588,48 +48669,353 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="10"/>
+    <field x="-2"/>
   </rowFields>
   <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
     <i>
       <x/>
     </i>
     <i i="1">
       <x v="1"/>
     </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="11" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
   </colItems>
   <pageFields count="3">
-    <pageField fld="32" hier="-1"/>
+    <pageField fld="32" item="7" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -48643,8 +49029,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField showAll="0"/>
@@ -48987,173 +49373,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="8"/>
-        <item h="1" x="5"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49318,7 +49539,113 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField showAll="0"/>
@@ -49441,114 +49768,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49790,7 +50011,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B5:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50051,7 +50272,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50227,7 +50448,7 @@
   </colItems>
   <pageFields count="3">
     <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="46" hier="-1"/>
+    <pageField fld="30" item="47" hier="-1"/>
     <pageField fld="45" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
@@ -50362,7 +50583,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -50786,7 +51007,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -51080,7 +51301,450 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="8"/>
+        <item h="1" x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="13" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item h="1" x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item h="1" x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51201,994 +51865,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="12" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="11" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="13" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52644,8 +52322,411 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="12" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52767,7 +52848,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -55283,6 +55364,9 @@
       <c r="K8" t="s">
         <v>256</v>
       </c>
+      <c r="L8">
+        <v>88</v>
+      </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B9" s="17" t="s">
@@ -55344,7 +55428,7 @@
       </c>
       <c r="L14">
         <f>SUBTOTAL(109,Table1[R&amp;D])</f>
-        <v>62.5</v>
+        <v>150.5</v>
       </c>
       <c r="M14">
         <f>SUBTOTAL(109,Table1[Total])</f>
@@ -55394,7 +55478,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Ursa2</v>
+        <v>Ursa3</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -55408,7 +55492,7 @@
         <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -55448,7 +55532,7 @@
         <v>148</v>
       </c>
       <c r="E8" s="20">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -55456,7 +55540,7 @@
         <v>175</v>
       </c>
       <c r="E9" s="20">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -55479,14 +55563,16 @@
       <c r="D12" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="20">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D13" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="20">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -55495,7 +55581,7 @@
       </c>
       <c r="E15">
         <f>GETPIVOTDATA("Story Points", $D$5)</f>
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -55504,7 +55590,7 @@
       </c>
       <c r="E16" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Ursa", "") &amp; " Progress"</f>
-        <v>Sprint 2 Progress</v>
+        <v>Sprint 3 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -56910,7 +56996,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa2</v>
+        <v>Ursa3</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>147</v>
@@ -56934,7 +57020,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa2</v>
+        <v>Ursa3</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>175</v>
@@ -56958,7 +57044,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa2</v>
+        <v>Ursa3</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>148</v>
@@ -56982,7 +57068,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa2</v>
+        <v>Ursa3</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>149</v>
@@ -57006,7 +57092,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa2</v>
+        <v>Ursa3</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>151</v>
@@ -57030,7 +57116,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa2</v>
+        <v>Ursa3</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>150</v>
@@ -57051,7 +57137,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa2</v>
+        <v>Ursa3</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>152</v>
@@ -58843,10 +58929,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.46484375" bestFit="1" customWidth="1"/>
@@ -58923,7 +59009,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$3:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$3:$Z$9),0%)</f>
-        <v>0.14925373134328357</v>
+        <v>0.29850746268656714</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -59001,7 +59087,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.85074626865671643</v>
+        <v>0.70149253731343286</v>
       </c>
       <c r="D3" s="26">
         <v>43677</v>
@@ -59171,52 +59257,44 @@
         <v>0.28358208955223879</v>
       </c>
       <c r="M5" s="70">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.77501406162114872</v>
+        <v>0.32</v>
       </c>
       <c r="N5" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Version Compare")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Version Compare")</f>
-        <v>0.25</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="O5" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Traces")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Traces")</f>
-        <v>0.25</v>
+        <v>0.48</v>
       </c>
       <c r="P5" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Process Artifact")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Process Artifact")</f>
-        <v>0.25</v>
+        <v>0.54</v>
       </c>
       <c r="Q5" s="40">
         <f t="shared" ref="Q5:Q9" si="1">$Q$25*(100%-K5)</f>
         <v>300.8955223880597</v>
       </c>
       <c r="R5" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
-        <v>450</v>
+        <v>298</v>
       </c>
       <c r="S5" s="42">
         <f t="shared" ref="S5:S9" si="2">$Q$26*(100%-K5)</f>
         <v>107.46268656716418</v>
       </c>
       <c r="T5" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Version Compare")</f>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="U5" s="40">
         <f t="shared" ref="U5:U9" si="3">$Q$27*(100%-L5)</f>
         <v>85.97014925373135</v>
       </c>
       <c r="V5" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Traces")</f>
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="W5" s="40">
         <f t="shared" ref="W5:W9" si="4">$Q$28*(100%-K5)</f>
         <v>39.402985074626869</v>
       </c>
       <c r="X5" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Process Artifact")</f>
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="Z5" s="32">
         <v>43752</v>
@@ -59245,7 +59323,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43691</v>
+        <v>43705</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>272</v>
@@ -59270,30 +59348,54 @@
         <f>SUM($J$4:J6)/SUM($J$4:$J$10)</f>
         <v>0.41791044776119401</v>
       </c>
-      <c r="M6" s="70"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
+      <c r="M6" s="70">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="N6" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Version Compare")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Version Compare")</f>
+        <v>0.25</v>
+      </c>
+      <c r="O6" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Traces")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Traces")</f>
+        <v>0.25</v>
+      </c>
+      <c r="P6" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Process Artifact")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Process Artifact")</f>
+        <v>0.25</v>
+      </c>
       <c r="Q6" s="40">
         <f t="shared" ref="Q6" si="5">$Q$25*(100%-K6)</f>
         <v>244.47761194029852</v>
       </c>
-      <c r="R6" s="42"/>
+      <c r="R6" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
+        <v>450</v>
+      </c>
       <c r="S6" s="42">
         <f t="shared" ref="S6" si="6">$Q$26*(100%-K6)</f>
         <v>87.313432835820905</v>
       </c>
-      <c r="T6" s="42"/>
+      <c r="T6" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Version Compare")</f>
+        <v>150</v>
+      </c>
       <c r="U6" s="40">
         <f t="shared" ref="U6" si="7">$Q$27*(100%-L6)</f>
         <v>69.850746268656721</v>
       </c>
-      <c r="V6" s="42"/>
+      <c r="V6" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Traces")</f>
+        <v>150</v>
+      </c>
       <c r="W6" s="40">
         <f t="shared" ref="W6" si="8">$Q$28*(100%-K6)</f>
         <v>32.014925373134332</v>
       </c>
-      <c r="X6" s="42"/>
+      <c r="X6" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Process Artifact")</f>
+        <v>150</v>
+      </c>
       <c r="Z6" s="32"/>
       <c r="AB6" s="17" t="s">
         <v>184</v>
@@ -59819,7 +59921,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$3:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$3:$Z$9),0%)</f>
-        <v>0.14925373134328357</v>
+        <v>0.29850746268656714</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
@@ -59828,7 +59930,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.85074626865671643</v>
+        <v>0.70149253731343286</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
@@ -60928,132 +61030,116 @@
         <v>43704</v>
       </c>
       <c r="D5" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
-        <v>2000.125</v>
+        <v>440</v>
       </c>
       <c r="E5" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>420</v>
       </c>
       <c r="F5" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="G5" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
-        <v>540</v>
+        <v>373</v>
       </c>
       <c r="H5" s="40">
         <f t="shared" ref="H5" si="12">D5-I5</f>
-        <v>1550.125</v>
+        <v>142</v>
       </c>
       <c r="I5" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
-        <v>450</v>
+        <v>298</v>
       </c>
       <c r="J5" s="33">
         <f t="shared" ref="J5" si="13" xml:space="preserve"> G5/D5</f>
-        <v>0.2699831260546216</v>
+        <v>0.84772727272727277</v>
       </c>
       <c r="K5" s="33">
         <f t="shared" ref="K5" si="14" xml:space="preserve"> H5/D5</f>
-        <v>0.77501406162114872</v>
+        <v>0.32272727272727275</v>
       </c>
       <c r="L5" s="59">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="M5" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>150</v>
       </c>
       <c r="N5" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="O5" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="P5" s="40">
         <f t="shared" ref="P5" si="15">L5-Q5</f>
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="R5" s="33">
         <f t="shared" ref="R5" si="16" xml:space="preserve"> O5/L5</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="S5" s="33">
         <f t="shared" ref="S5" si="17" xml:space="preserve"> P5/L5</f>
-        <v>0.25</v>
+        <v>0.29078014184397161</v>
       </c>
       <c r="T5" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="U5" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>120</v>
       </c>
       <c r="V5" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="W5" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="X5" s="40">
         <f t="shared" ref="X5" si="18">T5-Y5</f>
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="Y5" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="Z5" s="33">
         <f t="shared" ref="Z5" si="19" xml:space="preserve"> W5/T5</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="33">
         <f t="shared" ref="AA5" si="20">X5/T5</f>
-        <v>0.25</v>
+        <v>0.48305084745762711</v>
       </c>
       <c r="AB5" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="AC5" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>55</v>
       </c>
       <c r="AD5" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="AE5" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="AF5" s="40">
         <f t="shared" ref="AF5" si="21">AB5-AG5</f>
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AG5" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="AH5" s="33">
         <f t="shared" ref="AH5" si="22" xml:space="preserve"> AE5/AB5</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AI5" s="33">
         <f t="shared" ref="AI5" si="23">AF5/AB5</f>
-        <v>0.25</v>
+        <v>0.53846153846153844</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.45">
@@ -61066,50 +61152,134 @@
       <c r="C6" s="60">
         <v>43718</v>
       </c>
-      <c r="D6" s="57"/>
+      <c r="D6" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
+        <v>2000.125</v>
+      </c>
       <c r="E6" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>420</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="59"/>
+      <c r="F6" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
+        <v>540</v>
+      </c>
+      <c r="H6" s="40">
+        <f t="shared" ref="H6" si="24">D6-I6</f>
+        <v>1550.125</v>
+      </c>
+      <c r="I6" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
+        <v>450</v>
+      </c>
+      <c r="J6" s="33">
+        <f t="shared" ref="J6" si="25" xml:space="preserve"> G6/D6</f>
+        <v>0.2699831260546216</v>
+      </c>
+      <c r="K6" s="33">
+        <f t="shared" ref="K6" si="26" xml:space="preserve"> H6/D6</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="L6" s="59">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
+        <v>200</v>
+      </c>
       <c r="M6" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>150</v>
       </c>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="57"/>
+      <c r="N6" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
+        <v>180</v>
+      </c>
+      <c r="P6" s="40">
+        <f t="shared" ref="P6" si="27">L6-Q6</f>
+        <v>50</v>
+      </c>
+      <c r="Q6" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
+        <v>150</v>
+      </c>
+      <c r="R6" s="33">
+        <f t="shared" ref="R6" si="28" xml:space="preserve"> O6/L6</f>
+        <v>0.9</v>
+      </c>
+      <c r="S6" s="33">
+        <f t="shared" ref="S6" si="29" xml:space="preserve"> P6/L6</f>
+        <v>0.25</v>
+      </c>
+      <c r="T6" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
+        <v>200</v>
+      </c>
       <c r="U6" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>120</v>
       </c>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="57"/>
+      <c r="V6" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
+        <v>180</v>
+      </c>
+      <c r="X6" s="40">
+        <f t="shared" ref="X6" si="30">T6-Y6</f>
+        <v>50</v>
+      </c>
+      <c r="Y6" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
+        <v>150</v>
+      </c>
+      <c r="Z6" s="33">
+        <f t="shared" ref="Z6" si="31" xml:space="preserve"> W6/T6</f>
+        <v>0.9</v>
+      </c>
+      <c r="AA6" s="33">
+        <f t="shared" ref="AA6" si="32">X6/T6</f>
+        <v>0.25</v>
+      </c>
+      <c r="AB6" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
+        <v>200</v>
+      </c>
       <c r="AC6" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>55</v>
       </c>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="40"/>
-      <c r="AH6" s="33"/>
-      <c r="AI6" s="33"/>
+      <c r="AD6" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
+        <v>180</v>
+      </c>
+      <c r="AF6" s="40">
+        <f t="shared" ref="AF6" si="33">AB6-AG6</f>
+        <v>50</v>
+      </c>
+      <c r="AG6" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
+        <v>150</v>
+      </c>
+      <c r="AH6" s="33">
+        <f t="shared" ref="AH6" si="34" xml:space="preserve"> AE6/AB6</f>
+        <v>0.9</v>
+      </c>
+      <c r="AI6" s="33">
+        <f t="shared" ref="AI6" si="35">AF6/AB6</f>
+        <v>0.25</v>
+      </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -61829,20 +61999,24 @@
         <v>256</v>
       </c>
       <c r="C17" s="20">
-        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>1460.125</v>
+        <v>67</v>
       </c>
       <c r="D17" s="20">
-        <f>GETPIVOTDATA("Story Points",$G$5)</f>
-        <v>35</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>257</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+      <c r="C18" s="20">
+        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <v>1460.125</v>
+      </c>
+      <c r="D18" s="20">
+        <f>GETPIVOTDATA("Story Points",$G$5)</f>
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" t="s">

--- a/blueprint-jira-better-excel/Ursa-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Ursa-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{58E37FDA-CE7F-498B-9BDA-A53A7B9B7D5A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{27C93A21-49B0-4130-840A-E23F981D7D85}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="61" r:id="rId19"/>
+    <pivotCache cacheId="30" r:id="rId19"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1839,10 +1839,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.29850746268656714</c:v>
+                  <c:v>0.52238805970149249</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70149253731343286</c:v>
+                  <c:v>0.47761194029850751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5052,10 +5052,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.29850746268656714</c:v>
+                  <c:v>0.52238805970149249</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70149253731343286</c:v>
+                  <c:v>0.47761194029850751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8449,10 +8449,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.29850746268656714</c:v>
+                  <c:v>0.52238805970149249</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70149253731343286</c:v>
+                  <c:v>0.47761194029850751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15463,7 +15463,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint 3 Progress</c:v>
+              <c:v>Sprint 4 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -15952,7 +15952,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -22392,10 +22392,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.29850746268656714</c:v>
+                  <c:v>0.52238805970149249</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70149253731343286</c:v>
+                  <c:v>0.47761194029850751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41202,7 +41202,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>30%</a:t>
+            <a:t>52%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41580,7 +41580,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>26</a:t>
+            <a:t>16</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -41843,7 +41843,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>30%</a:t>
+            <a:t>52%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42519,7 +42519,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>30%</a:t>
+            <a:t>52%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43026,7 +43026,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>30%</a:t>
+            <a:t>52%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43043,7 +43043,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43705.31271539352" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43727.437603356484" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -44872,7 +44872,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44921,7 +44921,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44970,7 +44970,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45019,7 +45019,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45068,7 +45068,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45117,7 +45117,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45166,7 +45166,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -48569,8 +48569,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48594,25 +48594,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48695,10 +48677,9 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="4">
+  <pageFields count="3">
     <pageField fld="32" item="7" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="11" hier="-1"/>
     <pageField fld="45" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="5">
@@ -48708,7 +48689,7 @@
     <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
     <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
   </dataFields>
-  <chartFormats count="21">
+  <chartFormats count="15">
     <chartFormat chart="0" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -48850,7 +48831,810 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="13" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="12" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="37"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="46" item="2" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="10" format="49" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -48859,47 +49643,71 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="9" format="20">
+    <chartFormat chart="10" format="50">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="9" format="21">
+    <chartFormat chart="10" format="51">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="9" format="22">
+    <chartFormat chart="10" format="52">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="9" format="23">
+    <chartFormat chart="10" format="54">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="9" format="24">
+    <chartFormat chart="10" format="55">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -48917,8 +49725,1454 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B5:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="58">
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="15"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="53">
+        <item x="0"/>
+        <item m="1" x="16"/>
+        <item m="1" x="9"/>
+        <item m="1" x="48"/>
+        <item m="1" x="35"/>
+        <item m="1" x="24"/>
+        <item m="1" x="17"/>
+        <item m="1" x="11"/>
+        <item m="1" x="49"/>
+        <item m="1" x="23"/>
+        <item m="1" x="51"/>
+        <item m="1" x="45"/>
+        <item m="1" x="31"/>
+        <item m="1" x="22"/>
+        <item m="1" x="14"/>
+        <item m="1" x="26"/>
+        <item m="1" x="28"/>
+        <item m="1" x="32"/>
+        <item m="1" x="37"/>
+        <item m="1" x="40"/>
+        <item m="1" x="43"/>
+        <item m="1" x="47"/>
+        <item m="1" x="50"/>
+        <item x="1"/>
+        <item m="1" x="10"/>
+        <item m="1" x="12"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="18"/>
+        <item m="1" x="19"/>
+        <item m="1" x="20"/>
+        <item m="1" x="21"/>
+        <item m="1" x="25"/>
+        <item m="1" x="27"/>
+        <item m="1" x="29"/>
+        <item m="1" x="34"/>
+        <item m="1" x="38"/>
+        <item m="1" x="41"/>
+        <item m="1" x="30"/>
+        <item m="1" x="33"/>
+        <item m="1" x="36"/>
+        <item m="1" x="39"/>
+        <item m="1" x="42"/>
+        <item m="1" x="44"/>
+        <item m="1" x="46"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="30" item="48" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="58">
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="15"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item h="1" x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item h="1" x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49029,8 +51283,130 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="11" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField showAll="0"/>
@@ -49373,2500 +51749,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="37"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="46" item="2" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="10" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="50">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="51">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="52">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="53">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="54">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="55">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="B5:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="58">
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="15"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="53">
-        <item x="0"/>
-        <item m="1" x="16"/>
-        <item m="1" x="9"/>
-        <item m="1" x="48"/>
-        <item m="1" x="35"/>
-        <item m="1" x="24"/>
-        <item m="1" x="17"/>
-        <item m="1" x="11"/>
-        <item m="1" x="49"/>
-        <item m="1" x="23"/>
-        <item m="1" x="51"/>
-        <item m="1" x="45"/>
-        <item m="1" x="31"/>
-        <item m="1" x="22"/>
-        <item m="1" x="14"/>
-        <item m="1" x="26"/>
-        <item m="1" x="28"/>
-        <item m="1" x="32"/>
-        <item m="1" x="37"/>
-        <item m="1" x="40"/>
-        <item m="1" x="43"/>
-        <item m="1" x="47"/>
-        <item m="1" x="50"/>
-        <item x="1"/>
-        <item m="1" x="10"/>
-        <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
-        <item m="1" x="20"/>
-        <item m="1" x="21"/>
-        <item m="1" x="25"/>
-        <item m="1" x="27"/>
-        <item m="1" x="29"/>
-        <item m="1" x="34"/>
-        <item m="1" x="38"/>
-        <item m="1" x="41"/>
-        <item m="1" x="30"/>
-        <item m="1" x="33"/>
-        <item m="1" x="36"/>
-        <item m="1" x="39"/>
-        <item m="1" x="42"/>
-        <item m="1" x="44"/>
-        <item m="1" x="46"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="47" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="28">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="29">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="58">
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="15"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="8"/>
-        <item h="1" x="5"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="13" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item h="1" x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item h="1" x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="11" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52323,7 +52207,521 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="11" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="8"/>
+        <item h="1" x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
   <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52704,404 +53102,6 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="12" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -55478,7 +55478,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Ursa3</v>
+        <v>Ursa4</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -55492,7 +55492,7 @@
         <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -55532,7 +55532,7 @@
         <v>148</v>
       </c>
       <c r="E8" s="20">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -55572,7 +55572,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="20">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -55581,7 +55581,7 @@
       </c>
       <c r="E15">
         <f>GETPIVOTDATA("Story Points", $D$5)</f>
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -55590,7 +55590,7 @@
       </c>
       <c r="E16" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Ursa", "") &amp; " Progress"</f>
-        <v>Sprint 3 Progress</v>
+        <v>Sprint 4 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -56996,7 +56996,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa3</v>
+        <v>Ursa4</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>147</v>
@@ -57020,7 +57020,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa3</v>
+        <v>Ursa4</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>175</v>
@@ -57044,7 +57044,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa3</v>
+        <v>Ursa4</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>148</v>
@@ -57068,7 +57068,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa3</v>
+        <v>Ursa4</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>149</v>
@@ -57092,7 +57092,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa3</v>
+        <v>Ursa4</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>151</v>
@@ -57116,7 +57116,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa3</v>
+        <v>Ursa4</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>150</v>
@@ -57137,7 +57137,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa3</v>
+        <v>Ursa4</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>152</v>
@@ -58929,16 +58929,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.9296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.53125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.53125" customWidth="1"/>
     <col min="13" max="13" width="14.1328125" customWidth="1"/>
@@ -59009,7 +59009,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$3:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$3:$Z$9),0%)</f>
-        <v>0.29850746268656714</v>
+        <v>0.52238805970149249</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -59087,7 +59087,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.70149253731343286</v>
+        <v>0.47761194029850751</v>
       </c>
       <c r="D3" s="26">
         <v>43677</v>
@@ -59323,7 +59323,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43705</v>
+        <v>43727</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>272</v>
@@ -59921,7 +59921,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$3:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$3:$Z$9),0%)</f>
-        <v>0.29850746268656714</v>
+        <v>0.52238805970149249</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
@@ -59930,7 +59930,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.70149253731343286</v>
+        <v>0.47761194029850751</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">

--- a/blueprint-jira-better-excel/Ursa-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Ursa-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{27C93A21-49B0-4130-840A-E23F981D7D85}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{28AF809D-FC72-47BF-B34B-2F4E9D17F072}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="30" r:id="rId19"/>
+    <pivotCache cacheId="46" r:id="rId19"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1839,10 +1839,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.52238805970149249</c:v>
+                  <c:v>0.56716417910447758</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47761194029850751</c:v>
+                  <c:v>0.43283582089552242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2361,6 +2361,9 @@
                   <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -3824,6 +3827,9 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -4175,6 +4181,9 @@
                   <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -4254,6 +4263,9 @@
                   <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4335,6 +4347,9 @@
                   <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4414,6 +4429,9 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -5052,10 +5070,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.52238805970149249</c:v>
+                  <c:v>0.56716417910447758</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47761194029850751</c:v>
+                  <c:v>0.43283582089552242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5580,6 +5598,9 @@
                   <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -7052,6 +7073,9 @@
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7613,6 +7637,9 @@
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -7692,6 +7719,9 @@
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7773,6 +7803,9 @@
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -7852,6 +7885,9 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -8449,10 +8485,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.52238805970149249</c:v>
+                  <c:v>0.56716417910447758</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47761194029850751</c:v>
+                  <c:v>0.43283582089552242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8971,6 +9007,9 @@
                   <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -9424,6 +9463,9 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -9775,6 +9817,9 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -9854,6 +9899,9 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9935,6 +9983,9 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -10014,6 +10065,9 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -11441,6 +11495,9 @@
                   <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1460.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -11576,6 +11633,9 @@
                   <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
@@ -15229,6 +15289,9 @@
                   <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.77501406162114872</c:v>
                 </c:pt>
               </c:numCache>
@@ -20299,6 +20362,9 @@
                   <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
@@ -20650,6 +20716,9 @@
                   <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2000.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -20729,6 +20798,9 @@
                   <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -20810,6 +20882,9 @@
                   <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>540</c:v>
                 </c:pt>
               </c:numCache>
@@ -20889,6 +20964,9 @@
                   <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1550.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -22392,10 +22470,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.52238805970149249</c:v>
+                  <c:v>0.56716417910447758</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47761194029850751</c:v>
+                  <c:v>0.43283582089552242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41202,7 +41280,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>52%</a:t>
+            <a:t>57%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41843,7 +41921,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>52%</a:t>
+            <a:t>57%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42519,7 +42597,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>52%</a:t>
+            <a:t>57%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43026,7 +43104,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>52%</a:t>
+            <a:t>57%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43043,7 +43121,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43727.437603356484" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43732.342893287037" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -48569,8 +48647,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48594,7 +48672,25 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48677,9 +48773,10 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="3">
+  <pageFields count="4">
     <pageField fld="32" item="7" hier="-1"/>
     <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="12" hier="-1"/>
     <pageField fld="45" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="5">
@@ -48689,7 +48786,7 @@
     <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
     <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
   </dataFields>
-  <chartFormats count="15">
+  <chartFormats count="27">
     <chartFormat chart="0" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -48831,6 +48928,114 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -48845,8 +49050,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48870,25 +49075,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48935,7 +49122,15 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
@@ -48949,7 +49144,7 @@
   <pageFields count="3">
     <pageField fld="32" item="7" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="13" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -48967,20 +49162,20 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
+        <item x="0"/>
+        <item x="6"/>
         <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -48992,25 +49187,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49047,35 +49224,96 @@
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="8"/>
+        <item h="1" x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <pageFields count="3">
+    <pageField fld="1" item="2" hier="-1"/>
     <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="12" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
   </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -49089,7 +49327,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49254,7 +49492,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49360,7 +49598,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField showAll="0"/>
@@ -49484,7 +49722,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49726,7 +49964,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B5:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49987,7 +50225,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50298,7 +50536,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -50722,7 +50960,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -51016,275 +51254,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item h="1" x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item h="1" x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51405,8 +51375,130 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="13" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField showAll="0"/>
@@ -51749,8 +51841,130 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="12" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52207,7 +52421,439 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item h="1" x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item h="1" x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52534,574 +53180,6 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="8"/>
-        <item h="1" x="5"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="12" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -55378,6 +55456,9 @@
       <c r="K9" t="s">
         <v>257</v>
       </c>
+      <c r="L9">
+        <v>77</v>
+      </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B10" s="17" t="s">
@@ -55428,7 +55509,7 @@
       </c>
       <c r="L14">
         <f>SUBTOTAL(109,Table1[R&amp;D])</f>
-        <v>150.5</v>
+        <v>227.5</v>
       </c>
       <c r="M14">
         <f>SUBTOTAL(109,Table1[Total])</f>
@@ -58938,7 +59019,7 @@
     <col min="7" max="7" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.53125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.53125" customWidth="1"/>
     <col min="13" max="13" width="14.1328125" customWidth="1"/>
@@ -59009,7 +59090,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$3:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$3:$Z$9),0%)</f>
-        <v>0.52238805970149249</v>
+        <v>0.56716417910447758</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -59087,7 +59168,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.47761194029850751</v>
+        <v>0.43283582089552242</v>
       </c>
       <c r="D3" s="26">
         <v>43677</v>
@@ -59323,7 +59404,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43727</v>
+        <v>43732</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>272</v>
@@ -59349,52 +59430,44 @@
         <v>0.41791044776119401</v>
       </c>
       <c r="M6" s="70">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.77501406162114872</v>
+        <v>0.5</v>
       </c>
       <c r="N6" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Version Compare")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Version Compare")</f>
-        <v>0.25</v>
+        <v>0.63</v>
       </c>
       <c r="O6" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Traces")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Traces")</f>
-        <v>0.25</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="P6" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Process Artifact")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Process Artifact")</f>
-        <v>0.25</v>
+        <v>0.79</v>
       </c>
       <c r="Q6" s="40">
         <f t="shared" ref="Q6" si="5">$Q$25*(100%-K6)</f>
         <v>244.47761194029852</v>
       </c>
       <c r="R6" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
-        <v>450</v>
+        <v>214</v>
       </c>
       <c r="S6" s="42">
         <f t="shared" ref="S6" si="6">$Q$26*(100%-K6)</f>
         <v>87.313432835820905</v>
       </c>
       <c r="T6" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Version Compare")</f>
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="U6" s="40">
         <f t="shared" ref="U6" si="7">$Q$27*(100%-L6)</f>
         <v>69.850746268656721</v>
       </c>
       <c r="V6" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Traces")</f>
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="W6" s="40">
         <f t="shared" ref="W6" si="8">$Q$28*(100%-K6)</f>
         <v>32.014925373134332</v>
       </c>
       <c r="X6" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Process Artifact")</f>
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="Z6" s="32"/>
       <c r="AB6" s="17" t="s">
@@ -59438,30 +59511,54 @@
         <f>SUM($J$4:J7)/SUM($J$4:$J$10)</f>
         <v>0.56716417910447758</v>
       </c>
-      <c r="M7" s="70"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
+      <c r="M7" s="70">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="N7" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Version Compare")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Version Compare")</f>
+        <v>0.25</v>
+      </c>
+      <c r="O7" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Traces")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Traces")</f>
+        <v>0.25</v>
+      </c>
+      <c r="P7" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Process Artifact")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Process Artifact")</f>
+        <v>0.25</v>
+      </c>
       <c r="Q7" s="40">
         <f t="shared" si="1"/>
         <v>181.79104477611941</v>
       </c>
-      <c r="R7" s="42"/>
+      <c r="R7" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
+        <v>450</v>
+      </c>
       <c r="S7" s="42">
         <f t="shared" si="2"/>
         <v>64.925373134328368</v>
       </c>
-      <c r="T7" s="42"/>
+      <c r="T7" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Version Compare")</f>
+        <v>150</v>
+      </c>
       <c r="U7" s="40">
         <f t="shared" si="3"/>
         <v>51.940298507462693</v>
       </c>
-      <c r="V7" s="42"/>
+      <c r="V7" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Traces")</f>
+        <v>150</v>
+      </c>
       <c r="W7" s="40">
         <f t="shared" si="4"/>
         <v>23.805970149253731</v>
       </c>
-      <c r="X7" s="42"/>
+      <c r="X7" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Process Artifact")</f>
+        <v>150</v>
+      </c>
       <c r="Z7" s="32"/>
       <c r="AB7" s="17" t="s">
         <v>267</v>
@@ -59921,7 +60018,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$3:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$3:$Z$9),0%)</f>
-        <v>0.52238805970149249</v>
+        <v>0.56716417910447758</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
@@ -59930,7 +60027,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.47761194029850751</v>
+        <v>0.43283582089552242</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
@@ -61153,132 +61250,116 @@
         <v>43718</v>
       </c>
       <c r="D6" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
-        <v>2000.125</v>
+        <v>430</v>
       </c>
       <c r="E6" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>420</v>
       </c>
       <c r="F6" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="G6" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
-        <v>540</v>
+        <v>379</v>
       </c>
       <c r="H6" s="40">
         <f t="shared" ref="H6" si="24">D6-I6</f>
-        <v>1550.125</v>
+        <v>216</v>
       </c>
       <c r="I6" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
-        <v>450</v>
+        <v>214</v>
       </c>
       <c r="J6" s="33">
         <f t="shared" ref="J6" si="25" xml:space="preserve"> G6/D6</f>
-        <v>0.2699831260546216</v>
+        <v>0.88139534883720927</v>
       </c>
       <c r="K6" s="33">
         <f t="shared" ref="K6" si="26" xml:space="preserve"> H6/D6</f>
-        <v>0.77501406162114872</v>
+        <v>0.50232558139534889</v>
       </c>
       <c r="L6" s="59">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="M6" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>150</v>
       </c>
       <c r="N6" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="O6" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="P6" s="40">
         <f t="shared" ref="P6" si="27">L6-Q6</f>
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="Q6" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="R6" s="33">
         <f t="shared" ref="R6" si="28" xml:space="preserve"> O6/L6</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="S6" s="33">
         <f t="shared" ref="S6" si="29" xml:space="preserve"> P6/L6</f>
-        <v>0.25</v>
+        <v>0.62595419847328249</v>
       </c>
       <c r="T6" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="U6" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>120</v>
       </c>
       <c r="V6" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="W6" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="X6" s="40">
         <f t="shared" ref="X6" si="30">T6-Y6</f>
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="Y6" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="Z6" s="33">
         <f t="shared" ref="Z6" si="31" xml:space="preserve"> W6/T6</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="33">
         <f t="shared" ref="AA6" si="32">X6/T6</f>
-        <v>0.25</v>
+        <v>0.55084745762711862</v>
       </c>
       <c r="AB6" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="AC6" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>55</v>
       </c>
       <c r="AD6" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="AE6" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="AF6" s="40">
         <f t="shared" ref="AF6" si="33">AB6-AG6</f>
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG6" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="AH6" s="33">
         <f t="shared" ref="AH6" si="34" xml:space="preserve"> AE6/AB6</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AI6" s="33">
         <f t="shared" ref="AI6" si="35">AF6/AB6</f>
-        <v>0.25</v>
+        <v>0.78846153846153844</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.45">
@@ -61291,50 +61372,134 @@
       <c r="C7" s="60">
         <v>43732</v>
       </c>
-      <c r="D7" s="57"/>
+      <c r="D7" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
+        <v>2000.125</v>
+      </c>
       <c r="E7" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>420</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="59"/>
+      <c r="F7" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
+        <v>540</v>
+      </c>
+      <c r="H7" s="40">
+        <f t="shared" ref="H7" si="36">D7-I7</f>
+        <v>1550.125</v>
+      </c>
+      <c r="I7" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
+        <v>450</v>
+      </c>
+      <c r="J7" s="33">
+        <f t="shared" ref="J7" si="37" xml:space="preserve"> G7/D7</f>
+        <v>0.2699831260546216</v>
+      </c>
+      <c r="K7" s="33">
+        <f t="shared" ref="K7" si="38" xml:space="preserve"> H7/D7</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="L7" s="59">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
+        <v>200</v>
+      </c>
       <c r="M7" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>150</v>
       </c>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="57"/>
+      <c r="N7" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
+        <v>180</v>
+      </c>
+      <c r="P7" s="40">
+        <f t="shared" ref="P7" si="39">L7-Q7</f>
+        <v>50</v>
+      </c>
+      <c r="Q7" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
+        <v>150</v>
+      </c>
+      <c r="R7" s="33">
+        <f t="shared" ref="R7" si="40" xml:space="preserve"> O7/L7</f>
+        <v>0.9</v>
+      </c>
+      <c r="S7" s="33">
+        <f t="shared" ref="S7" si="41" xml:space="preserve"> P7/L7</f>
+        <v>0.25</v>
+      </c>
+      <c r="T7" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
+        <v>200</v>
+      </c>
       <c r="U7" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>120</v>
       </c>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="57"/>
+      <c r="V7" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
+        <v>180</v>
+      </c>
+      <c r="X7" s="40">
+        <f t="shared" ref="X7" si="42">T7-Y7</f>
+        <v>50</v>
+      </c>
+      <c r="Y7" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
+        <v>150</v>
+      </c>
+      <c r="Z7" s="33">
+        <f t="shared" ref="Z7" si="43" xml:space="preserve"> W7/T7</f>
+        <v>0.9</v>
+      </c>
+      <c r="AA7" s="33">
+        <f t="shared" ref="AA7" si="44">X7/T7</f>
+        <v>0.25</v>
+      </c>
+      <c r="AB7" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
+        <v>200</v>
+      </c>
       <c r="AC7" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>55</v>
       </c>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="40"/>
-      <c r="AF7" s="40"/>
-      <c r="AG7" s="40"/>
-      <c r="AH7" s="33"/>
-      <c r="AI7" s="33"/>
+      <c r="AD7" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
+        <v>180</v>
+      </c>
+      <c r="AF7" s="40">
+        <f t="shared" ref="AF7" si="45">AB7-AG7</f>
+        <v>50</v>
+      </c>
+      <c r="AG7" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
+        <v>150</v>
+      </c>
+      <c r="AH7" s="33">
+        <f t="shared" ref="AH7" si="46" xml:space="preserve"> AE7/AB7</f>
+        <v>0.9</v>
+      </c>
+      <c r="AI7" s="33">
+        <f t="shared" ref="AI7" si="47">AF7/AB7</f>
+        <v>0.25</v>
+      </c>
       <c r="AL7" s="16" t="s">
         <v>135</v>
       </c>
@@ -62010,20 +62175,24 @@
         <v>257</v>
       </c>
       <c r="C18" s="20">
-        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>1460.125</v>
+        <v>51</v>
       </c>
       <c r="D18" s="20">
-        <f>GETPIVOTDATA("Story Points",$G$5)</f>
-        <v>35</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>258</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
+      <c r="C19" s="20">
+        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <v>1460.125</v>
+      </c>
+      <c r="D19" s="20">
+        <f>GETPIVOTDATA("Story Points",$G$5)</f>
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" t="s">

--- a/blueprint-jira-better-excel/Ursa-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Ursa-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{28AF809D-FC72-47BF-B34B-2F4E9D17F072}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{C1BD08F3-2D9B-41AE-A589-4EB9B025C418}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1839,10 +1839,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.56716417910447758</c:v>
+                  <c:v>0.58208955223880599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43283582089552242</c:v>
+                  <c:v>0.41791044776119401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2364,6 +2364,9 @@
                   <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -3830,6 +3833,9 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -4184,6 +4190,9 @@
                   <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -4266,6 +4275,9 @@
                   <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4350,6 +4362,9 @@
                   <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4432,6 +4447,9 @@
                   <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -5070,10 +5088,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.56716417910447758</c:v>
+                  <c:v>0.58208955223880599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43283582089552242</c:v>
+                  <c:v>0.41791044776119401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5601,6 +5619,9 @@
                   <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -7076,6 +7097,9 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7640,6 +7664,9 @@
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -7722,6 +7749,9 @@
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7806,6 +7836,9 @@
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -7888,6 +7921,9 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -8485,10 +8521,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.56716417910447758</c:v>
+                  <c:v>0.58208955223880599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43283582089552242</c:v>
+                  <c:v>0.41791044776119401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9010,6 +9046,9 @@
                   <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -9466,6 +9505,9 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -9820,6 +9862,9 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -9902,6 +9947,9 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9986,6 +10034,9 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -10068,6 +10119,9 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -11498,6 +11552,9 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1460.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -11636,6 +11693,9 @@
                   <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
@@ -15292,6 +15352,9 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.77501406162114872</c:v>
                 </c:pt>
               </c:numCache>
@@ -15526,7 +15589,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint 4 Progress</c:v>
+              <c:v>Sprint 5 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -16027,7 +16090,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20365,6 +20428,9 @@
                   <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
@@ -20719,6 +20785,9 @@
                   <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2000.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -20801,6 +20870,9 @@
                   <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -20885,6 +20957,9 @@
                   <c:v>379</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>540</c:v>
                 </c:pt>
               </c:numCache>
@@ -20967,6 +21042,9 @@
                   <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1550.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -22470,10 +22548,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.56716417910447758</c:v>
+                  <c:v>0.58208955223880599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43283582089552242</c:v>
+                  <c:v>0.41791044776119401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41280,7 +41358,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>57%</a:t>
+            <a:t>58%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41658,7 +41736,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>16</a:t>
+            <a:t>36</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -41921,7 +41999,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>57%</a:t>
+            <a:t>58%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42597,7 +42675,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>57%</a:t>
+            <a:t>58%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43104,7 +43182,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>57%</a:t>
+            <a:t>58%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43121,7 +43199,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43732.342893287037" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43733.633968287038" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -44950,7 +45028,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44999,7 +45077,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45048,7 +45126,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45097,7 +45175,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45146,7 +45224,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45195,7 +45273,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45244,7 +45322,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -48647,8 +48725,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48695,7 +48773,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48731,87 +48809,165 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="12" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="7"/>
         <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
         <item x="1"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="-2"/>
+    <field x="44"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="9">
     <i>
-      <x/>
-    </i>
-    <i i="1">
       <x v="1"/>
     </i>
-    <i i="2">
+    <i>
       <x v="2"/>
     </i>
-    <i i="3">
+    <i>
       <x v="3"/>
     </i>
-    <i i="4">
+    <i>
       <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
     </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="12" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
+  <pageFields count="1">
+    <pageField fld="1" item="2" hier="-1"/>
   </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
   </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
+  <chartFormats count="18">
+    <chartFormat chart="2" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -48820,16 +48976,103 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
+    <chartFormat chart="2" format="2">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="11">
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -48838,200 +49081,98 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="12">
+    <chartFormat chart="3" format="11">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="13">
+    <chartFormat chart="3" format="12">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="14">
+    <chartFormat chart="3" format="13">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
             <x v="4"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="15">
+    <chartFormat chart="3" format="15">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
+    <chartFormat chart="3" format="16">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="23">
+    <chartFormat chart="3" format="17">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="24">
+    <chartFormat chart="3" format="18">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -49049,7 +49190,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
@@ -49149,171 +49290,6 @@
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="8"/>
-        <item h="1" x="5"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -49492,112 +49468,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="49">
@@ -49708,6 +49578,112 @@
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -50401,7 +50377,7 @@
   </colItems>
   <pageFields count="3">
     <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="48" hier="-1"/>
+    <pageField fld="30" item="49" hier="-1"/>
     <pageField fld="45" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
@@ -51254,20 +51230,20 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
+        <item x="0"/>
+        <item x="6"/>
         <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -51279,25 +51255,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51334,62 +51292,17 @@
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="11" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
         <item h="1" x="0"/>
-        <item h="1" x="6"/>
+        <item h="1" x="8"/>
+        <item h="1" x="5"/>
+        <item x="3"/>
+        <item x="4"/>
         <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
+        <item x="6"/>
+        <item x="7"/>
         <item h="1" x="1"/>
-        <item h="1" x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -51401,191 +51314,24 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="13" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
-      <items count="9">
+      <items count="5">
+        <item m="1" x="3"/>
         <item x="0"/>
-        <item x="6"/>
-        <item x="7"/>
         <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="44"/>
+    <field x="35"/>
   </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
+  <rowItems count="6">
     <i>
       <x v="3"/>
     </i>
@@ -51601,9 +51347,6 @@
     <i>
       <x v="7"/>
     </i>
-    <i>
-      <x v="8"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
@@ -51611,14 +51354,16 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="1">
+  <pageFields count="3">
     <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
   </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="1" series="1">
+  <chartFormats count="2">
+    <chartFormat chart="2" format="10" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -51627,203 +51372,11 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10" series="1">
+    <chartFormat chart="2" format="26">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -51841,129 +51394,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="12" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
@@ -52420,7 +51851,532 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="12" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="11" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
@@ -52684,6 +52640,128 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="13" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -55470,6 +55548,9 @@
       <c r="K10" t="s">
         <v>258</v>
       </c>
+      <c r="L10">
+        <v>40.5</v>
+      </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B11" s="17" t="s">
@@ -55509,7 +55590,7 @@
       </c>
       <c r="L14">
         <f>SUBTOTAL(109,Table1[R&amp;D])</f>
-        <v>227.5</v>
+        <v>268</v>
       </c>
       <c r="M14">
         <f>SUBTOTAL(109,Table1[Total])</f>
@@ -55559,7 +55640,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Ursa4</v>
+        <v>Ursa5</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -55573,7 +55654,7 @@
         <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -55645,7 +55726,7 @@
         <v>184</v>
       </c>
       <c r="E12" s="20">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -55653,7 +55734,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="20">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -55662,7 +55743,7 @@
       </c>
       <c r="E15">
         <f>GETPIVOTDATA("Story Points", $D$5)</f>
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -55671,7 +55752,7 @@
       </c>
       <c r="E16" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Ursa", "") &amp; " Progress"</f>
-        <v>Sprint 4 Progress</v>
+        <v>Sprint 5 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -57077,7 +57158,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa4</v>
+        <v>Ursa5</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>147</v>
@@ -57101,7 +57182,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa4</v>
+        <v>Ursa5</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>175</v>
@@ -57125,7 +57206,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa4</v>
+        <v>Ursa5</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>148</v>
@@ -57149,7 +57230,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa4</v>
+        <v>Ursa5</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>149</v>
@@ -57173,7 +57254,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa4</v>
+        <v>Ursa5</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>151</v>
@@ -57197,7 +57278,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa4</v>
+        <v>Ursa5</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>150</v>
@@ -57218,7 +57299,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa4</v>
+        <v>Ursa5</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>152</v>
@@ -59010,16 +59091,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.53125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.53125" customWidth="1"/>
     <col min="13" max="13" width="14.1328125" customWidth="1"/>
@@ -59090,7 +59171,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$3:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$3:$Z$9),0%)</f>
-        <v>0.56716417910447758</v>
+        <v>0.58208955223880599</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -59168,7 +59249,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.43283582089552242</v>
+        <v>0.41791044776119401</v>
       </c>
       <c r="D3" s="26">
         <v>43677</v>
@@ -59404,7 +59485,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43732</v>
+        <v>43733</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>272</v>
@@ -59512,52 +59593,44 @@
         <v>0.56716417910447758</v>
       </c>
       <c r="M7" s="70">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.77501406162114872</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="N7" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Version Compare")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Version Compare")</f>
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="O7" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Traces")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Traces")</f>
-        <v>0.25</v>
+        <v>0.65</v>
       </c>
       <c r="P7" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Process Artifact")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Process Artifact")</f>
-        <v>0.25</v>
+        <v>0.89</v>
       </c>
       <c r="Q7" s="40">
         <f t="shared" si="1"/>
         <v>181.79104477611941</v>
       </c>
       <c r="R7" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
-        <v>450</v>
+        <v>195</v>
       </c>
       <c r="S7" s="42">
         <f t="shared" si="2"/>
         <v>64.925373134328368</v>
       </c>
       <c r="T7" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Version Compare")</f>
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="U7" s="40">
         <f t="shared" si="3"/>
         <v>51.940298507462693</v>
       </c>
       <c r="V7" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Traces")</f>
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="W7" s="40">
         <f t="shared" si="4"/>
         <v>23.805970149253731</v>
       </c>
       <c r="X7" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Process Artifact")</f>
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="Z7" s="32"/>
       <c r="AB7" s="17" t="s">
@@ -59596,30 +59669,54 @@
         <f>SUM($J$4:J8)/SUM($J$4:$J$10)</f>
         <v>0.71641791044776115</v>
       </c>
-      <c r="M8" s="70"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
+      <c r="M8" s="70">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="N8" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Version Compare")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Version Compare")</f>
+        <v>0.25</v>
+      </c>
+      <c r="O8" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Traces")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Traces")</f>
+        <v>0.25</v>
+      </c>
+      <c r="P8" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Process Artifact")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Process Artifact")</f>
+        <v>0.25</v>
+      </c>
       <c r="Q8" s="40">
         <f t="shared" si="1"/>
         <v>119.10447761194031</v>
       </c>
-      <c r="R8" s="42"/>
+      <c r="R8" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
+        <v>450</v>
+      </c>
       <c r="S8" s="42">
         <f t="shared" si="2"/>
         <v>42.53731343283583</v>
       </c>
-      <c r="T8" s="42"/>
+      <c r="T8" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Version Compare")</f>
+        <v>150</v>
+      </c>
       <c r="U8" s="40">
         <f t="shared" si="3"/>
         <v>34.029850746268664</v>
       </c>
-      <c r="V8" s="42"/>
+      <c r="V8" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Traces")</f>
+        <v>150</v>
+      </c>
       <c r="W8" s="40">
         <f t="shared" si="4"/>
         <v>15.597014925373136</v>
       </c>
-      <c r="X8" s="42"/>
+      <c r="X8" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Process Artifact")</f>
+        <v>150</v>
+      </c>
       <c r="Z8" s="32"/>
       <c r="AB8" s="17" t="s">
         <v>268</v>
@@ -60018,7 +60115,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$3:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$3:$Z$9),0%)</f>
-        <v>0.56716417910447758</v>
+        <v>0.58208955223880599</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
@@ -60027,7 +60124,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.43283582089552242</v>
+        <v>0.41791044776119401</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
@@ -61373,132 +61470,116 @@
         <v>43732</v>
       </c>
       <c r="D7" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
-        <v>2000.125</v>
+        <v>449</v>
       </c>
       <c r="E7" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>420</v>
       </c>
       <c r="F7" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G7" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
-        <v>540</v>
+        <v>449</v>
       </c>
       <c r="H7" s="40">
         <f t="shared" ref="H7" si="36">D7-I7</f>
-        <v>1550.125</v>
+        <v>254</v>
       </c>
       <c r="I7" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
-        <v>450</v>
+        <v>195</v>
       </c>
       <c r="J7" s="33">
         <f t="shared" ref="J7" si="37" xml:space="preserve"> G7/D7</f>
-        <v>0.2699831260546216</v>
+        <v>1</v>
       </c>
       <c r="K7" s="33">
         <f t="shared" ref="K7" si="38" xml:space="preserve"> H7/D7</f>
-        <v>0.77501406162114872</v>
+        <v>0.5657015590200446</v>
       </c>
       <c r="L7" s="59">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
-        <v>200</v>
+        <v>137</v>
       </c>
       <c r="M7" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>150</v>
       </c>
       <c r="N7" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="O7" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="P7" s="40">
         <f t="shared" ref="P7" si="39">L7-Q7</f>
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="Q7" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="R7" s="33">
         <f t="shared" ref="R7" si="40" xml:space="preserve"> O7/L7</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="S7" s="33">
         <f t="shared" ref="S7" si="41" xml:space="preserve"> P7/L7</f>
-        <v>0.25</v>
+        <v>0.67153284671532842</v>
       </c>
       <c r="T7" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="U7" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>120</v>
       </c>
       <c r="V7" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="W7" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="X7" s="40">
         <f t="shared" ref="X7" si="42">T7-Y7</f>
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="Y7" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="Z7" s="33">
         <f t="shared" ref="Z7" si="43" xml:space="preserve"> W7/T7</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="33">
         <f t="shared" ref="AA7" si="44">X7/T7</f>
-        <v>0.25</v>
+        <v>0.65</v>
       </c>
       <c r="AB7" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
-        <v>200</v>
+        <v>52.5</v>
       </c>
       <c r="AC7" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>55</v>
       </c>
       <c r="AD7" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="AE7" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
-        <v>180</v>
+        <v>52.5</v>
       </c>
       <c r="AF7" s="40">
         <f t="shared" ref="AF7" si="45">AB7-AG7</f>
-        <v>50</v>
+        <v>46.5</v>
       </c>
       <c r="AG7" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="AH7" s="33">
         <f t="shared" ref="AH7" si="46" xml:space="preserve"> AE7/AB7</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AI7" s="33">
         <f t="shared" ref="AI7" si="47">AF7/AB7</f>
-        <v>0.25</v>
+        <v>0.88571428571428568</v>
       </c>
       <c r="AL7" s="16" t="s">
         <v>135</v>
@@ -61517,50 +61598,134 @@
       <c r="C8" s="60">
         <v>43746</v>
       </c>
-      <c r="D8" s="57"/>
+      <c r="D8" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
+        <v>2000.125</v>
+      </c>
       <c r="E8" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>420</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="59"/>
+      <c r="F8" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
+        <v>540</v>
+      </c>
+      <c r="H8" s="40">
+        <f t="shared" ref="H8" si="48">D8-I8</f>
+        <v>1550.125</v>
+      </c>
+      <c r="I8" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
+        <v>450</v>
+      </c>
+      <c r="J8" s="33">
+        <f t="shared" ref="J8" si="49" xml:space="preserve"> G8/D8</f>
+        <v>0.2699831260546216</v>
+      </c>
+      <c r="K8" s="33">
+        <f t="shared" ref="K8" si="50" xml:space="preserve"> H8/D8</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="L8" s="59">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
+        <v>200</v>
+      </c>
       <c r="M8" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>150</v>
       </c>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="57"/>
+      <c r="N8" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
+        <v>180</v>
+      </c>
+      <c r="P8" s="40">
+        <f t="shared" ref="P8" si="51">L8-Q8</f>
+        <v>50</v>
+      </c>
+      <c r="Q8" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
+        <v>150</v>
+      </c>
+      <c r="R8" s="33">
+        <f t="shared" ref="R8" si="52" xml:space="preserve"> O8/L8</f>
+        <v>0.9</v>
+      </c>
+      <c r="S8" s="33">
+        <f t="shared" ref="S8" si="53" xml:space="preserve"> P8/L8</f>
+        <v>0.25</v>
+      </c>
+      <c r="T8" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
+        <v>200</v>
+      </c>
       <c r="U8" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>120</v>
       </c>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="57"/>
+      <c r="V8" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
+        <v>180</v>
+      </c>
+      <c r="X8" s="40">
+        <f t="shared" ref="X8" si="54">T8-Y8</f>
+        <v>50</v>
+      </c>
+      <c r="Y8" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
+        <v>150</v>
+      </c>
+      <c r="Z8" s="33">
+        <f t="shared" ref="Z8" si="55" xml:space="preserve"> W8/T8</f>
+        <v>0.9</v>
+      </c>
+      <c r="AA8" s="33">
+        <f t="shared" ref="AA8" si="56">X8/T8</f>
+        <v>0.25</v>
+      </c>
+      <c r="AB8" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
+        <v>200</v>
+      </c>
       <c r="AC8" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>55</v>
       </c>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="40"/>
-      <c r="AH8" s="33"/>
-      <c r="AI8" s="33"/>
+      <c r="AD8" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
+        <v>180</v>
+      </c>
+      <c r="AF8" s="40">
+        <f t="shared" ref="AF8" si="57">AB8-AG8</f>
+        <v>50</v>
+      </c>
+      <c r="AG8" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
+        <v>150</v>
+      </c>
+      <c r="AH8" s="33">
+        <f t="shared" ref="AH8" si="58" xml:space="preserve"> AE8/AB8</f>
+        <v>0.9</v>
+      </c>
+      <c r="AI8" s="33">
+        <f t="shared" ref="AI8" si="59">AF8/AB8</f>
+        <v>0.25</v>
+      </c>
       <c r="AL8" s="16" t="s">
         <v>248</v>
       </c>
@@ -62186,20 +62351,24 @@
         <v>258</v>
       </c>
       <c r="C19" s="20">
-        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>1460.125</v>
+        <v>0</v>
       </c>
       <c r="D19" s="20">
-        <f>GETPIVOTDATA("Story Points",$G$5)</f>
-        <v>35</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>259</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="C20" s="20">
+        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <v>1460.125</v>
+      </c>
+      <c r="D20" s="20">
+        <f>GETPIVOTDATA("Story Points",$G$5)</f>
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" t="s">

--- a/blueprint-jira-better-excel/Ursa-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Ursa-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{C1BD08F3-2D9B-41AE-A589-4EB9B025C418}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{BDEBAF73-7C56-496B-8DC9-B5F27D420929}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1839,10 +1839,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.58208955223880599</c:v>
+                  <c:v>0.73134328358208955</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41791044776119401</c:v>
+                  <c:v>0.26865671641791045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2367,6 +2367,9 @@
                   <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -3836,6 +3839,9 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -4193,6 +4199,9 @@
                   <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -4278,6 +4287,9 @@
                   <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4365,6 +4377,9 @@
                   <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4450,6 +4465,9 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -5088,10 +5106,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.58208955223880599</c:v>
+                  <c:v>0.73134328358208955</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41791044776119401</c:v>
+                  <c:v>0.26865671641791045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5622,6 +5640,9 @@
                   <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -7100,6 +7121,9 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7667,6 +7691,9 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -7752,6 +7779,9 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7839,6 +7869,9 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -7924,6 +7957,9 @@
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -8521,10 +8557,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.58208955223880599</c:v>
+                  <c:v>0.73134328358208955</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41791044776119401</c:v>
+                  <c:v>0.26865671641791045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9049,6 +9085,9 @@
                   <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -9508,6 +9547,9 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -9865,6 +9907,9 @@
                   <c:v>52.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -9950,6 +9995,9 @@
                   <c:v>52.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -10037,6 +10085,9 @@
                   <c:v>52.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -10122,6 +10173,9 @@
                   <c:v>46.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -11555,6 +11609,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1460.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -11696,6 +11753,9 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
@@ -15355,6 +15415,9 @@
                   <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.77501406162114872</c:v>
                 </c:pt>
               </c:numCache>
@@ -15589,7 +15652,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint 5 Progress</c:v>
+              <c:v>Sprint 6 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -16090,7 +16153,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20431,6 +20494,9 @@
                   <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
@@ -20788,6 +20854,9 @@
                   <c:v>449</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>440.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2000.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -20873,6 +20942,9 @@
                   <c:v>449</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>440.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -20960,6 +21032,9 @@
                   <c:v>449</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>440.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>540</c:v>
                 </c:pt>
               </c:numCache>
@@ -21045,6 +21120,9 @@
                   <c:v>254</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>330.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1550.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -22548,10 +22626,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.58208955223880599</c:v>
+                  <c:v>0.73134328358208955</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41791044776119401</c:v>
+                  <c:v>0.26865671641791045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41358,7 +41436,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>58%</a:t>
+            <a:t>73%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41736,7 +41814,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>36</a:t>
+            <a:t>16</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -41999,7 +42077,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>58%</a:t>
+            <a:t>73%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42675,7 +42753,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>58%</a:t>
+            <a:t>73%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43182,7 +43260,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>58%</a:t>
+            <a:t>73%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43199,7 +43277,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43733.633968287038" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43747.40610104167" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -45028,7 +45106,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45077,7 +45155,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45126,7 +45204,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45175,7 +45253,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45224,7 +45302,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45273,7 +45351,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45322,7 +45400,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -48725,8 +48803,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48829,7 +48907,7 @@
   <pageFields count="3">
     <pageField fld="32" item="7" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="12" hier="-1"/>
+    <pageField fld="10" item="11" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -48847,6 +48925,409 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="12" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
@@ -49178,118 +49659,6 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -50377,7 +50746,7 @@
   </colItems>
   <pageFields count="3">
     <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="49" hier="-1"/>
+    <pageField fld="30" item="50" hier="-1"/>
     <pageField fld="45" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
@@ -50512,6 +50881,300 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="58">
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="15"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
@@ -50935,87 +51598,133 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="9">
-        <item x="0"/>
-        <item x="6"/>
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
         <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
+      <items count="9">
         <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
         <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
         <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
         <item x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -51045,68 +51754,10 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="58">
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="15"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="9">
         <item x="0"/>
@@ -51124,78 +51775,88 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
         <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="31"/>
+    <field x="-2"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="5">
     <i>
-      <x v="49"/>
+      <x/>
     </i>
-    <i>
-      <x v="50"/>
+    <i i="1">
+      <x v="1"/>
     </i>
-    <i>
-      <x v="51"/>
+    <i i="2">
+      <x v="2"/>
     </i>
-    <i>
-      <x v="52"/>
+    <i i="3">
+      <x v="3"/>
     </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i t="grand">
-      <x/>
+    <i i="4">
+      <x v="4"/>
     </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="4">
+  <pageFields count="3">
     <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
   </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -51204,14 +51865,110 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="6">
+    <chartFormat chart="0" format="10" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -51229,7 +51986,129 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="12" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
@@ -51394,7 +52273,129 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="13" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
@@ -51839,929 +52840,6 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="12" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="11" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="13" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -55562,6 +55640,9 @@
       <c r="K11" t="s">
         <v>259</v>
       </c>
+      <c r="L11">
+        <v>85.5</v>
+      </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B12" s="17" t="s">
@@ -55590,7 +55671,7 @@
       </c>
       <c r="L14">
         <f>SUBTOTAL(109,Table1[R&amp;D])</f>
-        <v>268</v>
+        <v>353.5</v>
       </c>
       <c r="M14">
         <f>SUBTOTAL(109,Table1[Total])</f>
@@ -55640,7 +55721,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Ursa5</v>
+        <v>Ursa6</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -55654,7 +55735,7 @@
         <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -55726,7 +55807,7 @@
         <v>184</v>
       </c>
       <c r="E12" s="20">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -55734,7 +55815,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="20">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -55743,7 +55824,7 @@
       </c>
       <c r="E15">
         <f>GETPIVOTDATA("Story Points", $D$5)</f>
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -55752,7 +55833,7 @@
       </c>
       <c r="E16" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Ursa", "") &amp; " Progress"</f>
-        <v>Sprint 5 Progress</v>
+        <v>Sprint 6 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -55796,7 +55877,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.06640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
@@ -57158,7 +57239,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa5</v>
+        <v>Ursa6</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>147</v>
@@ -57182,7 +57263,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa5</v>
+        <v>Ursa6</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>175</v>
@@ -57206,7 +57287,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa5</v>
+        <v>Ursa6</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>148</v>
@@ -57230,7 +57311,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa5</v>
+        <v>Ursa6</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>149</v>
@@ -57254,7 +57335,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa5</v>
+        <v>Ursa6</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>151</v>
@@ -57278,7 +57359,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa5</v>
+        <v>Ursa6</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>150</v>
@@ -57299,7 +57380,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa5</v>
+        <v>Ursa6</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>152</v>
@@ -59091,8 +59172,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
@@ -59100,7 +59181,7 @@
     <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.53125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.53125" customWidth="1"/>
     <col min="13" max="13" width="14.1328125" customWidth="1"/>
@@ -59171,7 +59252,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$3:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$3:$Z$9),0%)</f>
-        <v>0.58208955223880599</v>
+        <v>0.73134328358208955</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -59249,7 +59330,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.41791044776119401</v>
+        <v>0.26865671641791045</v>
       </c>
       <c r="D3" s="26">
         <v>43677</v>
@@ -59485,7 +59566,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43733</v>
+        <v>43747</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>272</v>
@@ -59670,52 +59751,44 @@
         <v>0.71641791044776115</v>
       </c>
       <c r="M8" s="70">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.77501406162114872</v>
+        <v>0.75</v>
       </c>
       <c r="N8" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Version Compare")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Version Compare")</f>
-        <v>0.25</v>
+        <v>0.86</v>
       </c>
       <c r="O8" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Traces")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Traces")</f>
-        <v>0.25</v>
+        <v>0.82</v>
       </c>
       <c r="P8" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Process Artifact")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Process Artifact")</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="40">
         <f t="shared" si="1"/>
         <v>119.10447761194031</v>
       </c>
       <c r="R8" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
-        <v>450</v>
+        <v>110</v>
       </c>
       <c r="S8" s="42">
         <f t="shared" si="2"/>
         <v>42.53731343283583</v>
       </c>
       <c r="T8" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Version Compare")</f>
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="U8" s="40">
         <f t="shared" si="3"/>
         <v>34.029850746268664</v>
       </c>
       <c r="V8" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Traces")</f>
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="W8" s="40">
         <f t="shared" si="4"/>
         <v>15.597014925373136</v>
       </c>
       <c r="X8" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Process Artifact")</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="32"/>
       <c r="AB8" s="17" t="s">
@@ -59758,30 +59831,54 @@
         <f>SUM($J$4:J9)/SUM($J$4:$J$10)</f>
         <v>0.85074626865671643</v>
       </c>
-      <c r="M9" s="70"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
+      <c r="M9" s="70">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="N9" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Version Compare")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Version Compare")</f>
+        <v>0.25</v>
+      </c>
+      <c r="O9" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Traces")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Traces")</f>
+        <v>0.25</v>
+      </c>
+      <c r="P9" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Process Artifact")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Process Artifact")</f>
+        <v>0.25</v>
+      </c>
       <c r="Q9" s="42">
         <f t="shared" si="1"/>
         <v>62.686567164179095</v>
       </c>
-      <c r="R9" s="42"/>
+      <c r="R9" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
+        <v>450</v>
+      </c>
       <c r="S9" s="42">
         <f t="shared" si="2"/>
         <v>22.388059701492537</v>
       </c>
-      <c r="T9" s="42"/>
+      <c r="T9" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Version Compare")</f>
+        <v>150</v>
+      </c>
       <c r="U9" s="42">
         <f t="shared" si="3"/>
         <v>17.910447761194028</v>
       </c>
-      <c r="V9" s="42"/>
+      <c r="V9" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Traces")</f>
+        <v>150</v>
+      </c>
       <c r="W9" s="42">
         <f t="shared" si="4"/>
         <v>8.2089552238805972</v>
       </c>
-      <c r="X9" s="42"/>
+      <c r="X9" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Process Artifact")</f>
+        <v>150</v>
+      </c>
       <c r="Z9" s="32"/>
       <c r="AB9" s="17" t="s">
         <v>284</v>
@@ -60115,7 +60212,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$3:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$3:$Z$9),0%)</f>
-        <v>0.58208955223880599</v>
+        <v>0.73134328358208955</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
@@ -60124,7 +60221,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.41791044776119401</v>
+        <v>0.26865671641791045</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
@@ -61599,132 +61696,116 @@
         <v>43746</v>
       </c>
       <c r="D8" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
-        <v>2000.125</v>
+        <v>440.5</v>
       </c>
       <c r="E8" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>420</v>
       </c>
       <c r="F8" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>440.5</v>
       </c>
       <c r="G8" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
-        <v>540</v>
+        <v>440.5</v>
       </c>
       <c r="H8" s="40">
         <f t="shared" ref="H8" si="48">D8-I8</f>
-        <v>1550.125</v>
+        <v>330.5</v>
       </c>
       <c r="I8" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
-        <v>450</v>
+        <v>110</v>
       </c>
       <c r="J8" s="33">
         <f t="shared" ref="J8" si="49" xml:space="preserve"> G8/D8</f>
-        <v>0.2699831260546216</v>
+        <v>1</v>
       </c>
       <c r="K8" s="33">
         <f t="shared" ref="K8" si="50" xml:space="preserve"> H8/D8</f>
-        <v>0.77501406162114872</v>
+        <v>0.75028376844494893</v>
       </c>
       <c r="L8" s="59">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="M8" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>150</v>
       </c>
       <c r="N8" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="O8" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="P8" s="40">
         <f t="shared" ref="P8" si="51">L8-Q8</f>
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="Q8" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="R8" s="33">
         <f t="shared" ref="R8" si="52" xml:space="preserve"> O8/L8</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="S8" s="33">
         <f t="shared" ref="S8" si="53" xml:space="preserve"> P8/L8</f>
-        <v>0.25</v>
+        <v>0.86046511627906974</v>
       </c>
       <c r="T8" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="U8" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>120</v>
       </c>
       <c r="V8" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="W8" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="X8" s="40">
         <f t="shared" ref="X8" si="54">T8-Y8</f>
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="Y8" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="Z8" s="33">
         <f t="shared" ref="Z8" si="55" xml:space="preserve"> W8/T8</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="33">
         <f t="shared" ref="AA8" si="56">X8/T8</f>
-        <v>0.25</v>
+        <v>0.81560283687943258</v>
       </c>
       <c r="AB8" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
-        <v>200</v>
+        <v>48.5</v>
       </c>
       <c r="AC8" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>55</v>
       </c>
       <c r="AD8" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="AE8" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
-        <v>180</v>
+        <v>48.5</v>
       </c>
       <c r="AF8" s="40">
         <f t="shared" ref="AF8" si="57">AB8-AG8</f>
-        <v>50</v>
+        <v>48.5</v>
       </c>
       <c r="AG8" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="33">
         <f t="shared" ref="AH8" si="58" xml:space="preserve"> AE8/AB8</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AI8" s="33">
         <f t="shared" ref="AI8" si="59">AF8/AB8</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="16" t="s">
         <v>248</v>
@@ -61743,50 +61824,134 @@
       <c r="C9" s="60">
         <v>43760</v>
       </c>
-      <c r="D9" s="57"/>
+      <c r="D9" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
+        <v>2000.125</v>
+      </c>
       <c r="E9" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>420</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="59"/>
+      <c r="F9" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
+        <v>540</v>
+      </c>
+      <c r="H9" s="40">
+        <f t="shared" ref="H9" si="60">D9-I9</f>
+        <v>1550.125</v>
+      </c>
+      <c r="I9" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
+        <v>450</v>
+      </c>
+      <c r="J9" s="33">
+        <f t="shared" ref="J9" si="61" xml:space="preserve"> G9/D9</f>
+        <v>0.2699831260546216</v>
+      </c>
+      <c r="K9" s="33">
+        <f t="shared" ref="K9" si="62" xml:space="preserve"> H9/D9</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="L9" s="59">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
+        <v>200</v>
+      </c>
       <c r="M9" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>150</v>
       </c>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="57"/>
+      <c r="N9" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
+        <v>180</v>
+      </c>
+      <c r="P9" s="40">
+        <f t="shared" ref="P9" si="63">L9-Q9</f>
+        <v>50</v>
+      </c>
+      <c r="Q9" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
+        <v>150</v>
+      </c>
+      <c r="R9" s="33">
+        <f t="shared" ref="R9" si="64" xml:space="preserve"> O9/L9</f>
+        <v>0.9</v>
+      </c>
+      <c r="S9" s="33">
+        <f t="shared" ref="S9" si="65" xml:space="preserve"> P9/L9</f>
+        <v>0.25</v>
+      </c>
+      <c r="T9" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
+        <v>200</v>
+      </c>
       <c r="U9" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>120</v>
       </c>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="57"/>
+      <c r="V9" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
+        <v>180</v>
+      </c>
+      <c r="X9" s="40">
+        <f t="shared" ref="X9" si="66">T9-Y9</f>
+        <v>50</v>
+      </c>
+      <c r="Y9" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
+        <v>150</v>
+      </c>
+      <c r="Z9" s="33">
+        <f t="shared" ref="Z9" si="67" xml:space="preserve"> W9/T9</f>
+        <v>0.9</v>
+      </c>
+      <c r="AA9" s="33">
+        <f t="shared" ref="AA9" si="68">X9/T9</f>
+        <v>0.25</v>
+      </c>
+      <c r="AB9" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
+        <v>200</v>
+      </c>
       <c r="AC9" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>55</v>
       </c>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="40"/>
-      <c r="AH9" s="33"/>
-      <c r="AI9" s="33"/>
+      <c r="AD9" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
+        <v>180</v>
+      </c>
+      <c r="AF9" s="40">
+        <f t="shared" ref="AF9" si="69">AB9-AG9</f>
+        <v>50</v>
+      </c>
+      <c r="AG9" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
+        <v>150</v>
+      </c>
+      <c r="AH9" s="33">
+        <f t="shared" ref="AH9" si="70" xml:space="preserve"> AE9/AB9</f>
+        <v>0.9</v>
+      </c>
+      <c r="AI9" s="33">
+        <f t="shared" ref="AI9" si="71">AF9/AB9</f>
+        <v>0.25</v>
+      </c>
     </row>
     <row r="10" spans="1:42" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
@@ -62362,20 +62527,24 @@
         <v>259</v>
       </c>
       <c r="C20" s="20">
-        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>1460.125</v>
+        <v>241</v>
       </c>
       <c r="D20" s="20">
-        <f>GETPIVOTDATA("Story Points",$G$5)</f>
-        <v>35</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>260</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
+      <c r="C21" s="20">
+        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <v>1460.125</v>
+      </c>
+      <c r="D21" s="20">
+        <f>GETPIVOTDATA("Story Points",$G$5)</f>
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" t="s">

--- a/blueprint-jira-better-excel/Ursa-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Ursa-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{BDEBAF73-7C56-496B-8DC9-B5F27D420929}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{64DB87A6-3D76-431B-A3E8-CB753B468867}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="289">
   <si>
     <t>Status</t>
   </si>
@@ -1839,10 +1839,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.73134328358208955</c:v>
+                  <c:v>0.95522388059701491</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26865671641791045</c:v>
+                  <c:v>4.4776119402985093E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2370,6 +2370,9 @@
                   <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -3842,6 +3845,9 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -4202,6 +4208,9 @@
                   <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>133.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -4290,6 +4299,9 @@
                   <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>133.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4380,6 +4392,9 @@
                   <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>133.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4468,6 +4483,9 @@
                   <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>128.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -5106,10 +5124,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.73134328358208955</c:v>
+                  <c:v>0.95522388059701491</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26865671641791045</c:v>
+                  <c:v>4.4776119402985093E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5643,6 +5661,9 @@
                   <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -7124,6 +7145,9 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7694,6 +7718,9 @@
                   <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -7782,6 +7809,9 @@
                   <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7872,6 +7902,9 @@
                   <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -7960,6 +7993,9 @@
                   <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -8557,10 +8593,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.73134328358208955</c:v>
+                  <c:v>0.95522388059701491</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26865671641791045</c:v>
+                  <c:v>4.4776119402985093E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9088,6 +9124,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -9550,6 +9589,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -9910,6 +9952,9 @@
                   <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>48.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -9998,6 +10043,9 @@
                   <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -10088,6 +10136,9 @@
                   <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -10176,6 +10227,9 @@
                   <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>48.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -11612,6 +11666,9 @@
                   <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1460.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -11756,6 +11813,9 @@
                   <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
@@ -15418,6 +15478,9 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.77501406162114872</c:v>
                 </c:pt>
               </c:numCache>
@@ -15652,7 +15715,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint 6 Progress</c:v>
+              <c:v>Sprint 7 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -16007,7 +16070,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -16025,9 +16088,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -16103,7 +16164,7 @@
             <c:strRef>
               <c:f>_ActiveSprintData!$E$16</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Closed</c:v>
                 </c:pt>
@@ -16123,6 +16184,9 @@
                   <c:v>Cancelled</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>Unkown</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>(blank)</c:v>
                 </c:pt>
               </c:strCache>
@@ -16133,7 +16197,7 @@
               <c:f>_ActiveSprintData!$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -16152,7 +16216,7 @@
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -20497,6 +20561,9 @@
                   <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
@@ -20857,6 +20924,9 @@
                   <c:v>440.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2000.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -20945,6 +21015,9 @@
                   <c:v>440.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -21035,6 +21108,9 @@
                   <c:v>440.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>540</c:v>
                 </c:pt>
               </c:numCache>
@@ -21123,6 +21199,9 @@
                   <c:v>330.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1550.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -22626,10 +22705,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.73134328358208955</c:v>
+                  <c:v>0.95522388059701491</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26865671641791045</c:v>
+                  <c:v>4.4776119402985093E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41436,7 +41515,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>73%</a:t>
+            <a:t>96%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42077,7 +42156,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>73%</a:t>
+            <a:t>96%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42753,7 +42832,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>73%</a:t>
+            <a:t>96%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43260,7 +43339,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>73%</a:t>
+            <a:t>96%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43277,7 +43356,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43747.40610104167" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43769.624158101855" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -45106,7 +45185,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="7"/>
+    <x v="8"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45155,7 +45234,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="7"/>
+    <x v="8"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45204,7 +45283,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="7"/>
+    <x v="8"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45253,7 +45332,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="7"/>
+    <x v="8"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45302,7 +45381,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="7"/>
+    <x v="8"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45351,7 +45430,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="7"/>
+    <x v="8"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45400,7 +45479,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="7"/>
+    <x v="8"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -48803,8 +48882,173 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="8"/>
+        <item h="1" x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48907,7 +49151,7 @@
   <pageFields count="3">
     <pageField fld="32" item="7" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="11" hier="-1"/>
+    <pageField fld="10" item="12" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -48924,7 +49168,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
   <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
@@ -49327,350 +49571,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="44"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
@@ -49837,6 +49737,112 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="49">
@@ -49947,112 +49953,6 @@
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -50571,7 +50471,7 @@
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <location ref="D5:E14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -50715,7 +50615,7 @@
   <rowFields count="1">
     <field x="34"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="9">
     <i>
       <x v="1"/>
     </i>
@@ -50735,6 +50635,9 @@
       <x v="6"/>
     </i>
     <i>
+      <x v="7"/>
+    </i>
+    <i>
       <x v="8"/>
     </i>
     <i t="grand">
@@ -50746,7 +50649,7 @@
   </colItems>
   <pageFields count="3">
     <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="50" hier="-1"/>
+    <pageField fld="30" item="51" hier="-1"/>
     <pageField fld="45" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
@@ -51599,264 +51502,127 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
       <items count="9">
         <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="4"/>
         <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
+        <item x="5"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
         <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="8"/>
         <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="-2"/>
+    <field x="44"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="9">
     <i>
-      <x/>
-    </i>
-    <i i="1">
       <x v="1"/>
     </i>
-    <i i="2">
+    <i>
       <x v="2"/>
     </i>
-    <i i="3">
+    <i>
       <x v="3"/>
     </i>
-    <i i="4">
+    <i>
       <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
     </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
+  <pageFields count="1">
+    <pageField fld="1" item="2" hier="-1"/>
   </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
   </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
+  <chartFormats count="18">
+    <chartFormat chart="2" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -51865,16 +51631,103 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
+    <chartFormat chart="2" format="2">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="11">
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -51883,92 +51736,98 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="12">
+    <chartFormat chart="3" format="11">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="13">
+    <chartFormat chart="3" format="12">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="14">
+    <chartFormat chart="3" format="13">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
             <x v="4"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="15">
+    <chartFormat chart="3" format="15">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
+    <chartFormat chart="3" format="16">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="23">
+    <chartFormat chart="3" format="17">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="24">
+    <chartFormat chart="3" format="18">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
           </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -51986,294 +51845,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="12" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="8"/>
-        <item h="1" x="5"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="7" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
@@ -52395,7 +51967,241 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="11" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
@@ -52831,6 +52637,282 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="18" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -55652,6 +55734,9 @@
       <c r="K12" t="s">
         <v>260</v>
       </c>
+      <c r="L12">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B13" s="17" t="s">
@@ -55671,7 +55756,7 @@
       </c>
       <c r="L14">
         <f>SUBTOTAL(109,Table1[R&amp;D])</f>
-        <v>353.5</v>
+        <v>433.5</v>
       </c>
       <c r="M14">
         <f>SUBTOTAL(109,Table1[Total])</f>
@@ -55721,7 +55806,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Ursa6</v>
+        <v>Ursa7</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -55735,7 +55820,7 @@
         <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -55804,17 +55889,23 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D12" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="E12" s="20">
-        <v>10</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D13" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D14" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E14" s="20">
         <v>16</v>
       </c>
     </row>
@@ -55833,7 +55924,7 @@
       </c>
       <c r="E16" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Ursa", "") &amp; " Progress"</f>
-        <v>Sprint 6 Progress</v>
+        <v>Sprint 7 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -57239,7 +57330,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa6</v>
+        <v>Ursa7</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>147</v>
@@ -57263,7 +57354,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa6</v>
+        <v>Ursa7</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>175</v>
@@ -57287,7 +57378,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa6</v>
+        <v>Ursa7</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>148</v>
@@ -57311,7 +57402,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa6</v>
+        <v>Ursa7</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>149</v>
@@ -57335,7 +57426,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa6</v>
+        <v>Ursa7</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>151</v>
@@ -57359,7 +57450,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa6</v>
+        <v>Ursa7</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>150</v>
@@ -57380,7 +57471,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Ursa6</v>
+        <v>Ursa7</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>152</v>
@@ -59172,11 +59263,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.9296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.265625" bestFit="1" customWidth="1"/>
@@ -59252,7 +59343,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$3:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$3:$Z$9),0%)</f>
-        <v>0.73134328358208955</v>
+        <v>0.95522388059701491</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -59330,7 +59421,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.26865671641791045</v>
+        <v>4.4776119402985093E-2</v>
       </c>
       <c r="D3" s="26">
         <v>43677</v>
@@ -59566,7 +59657,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43747</v>
+        <v>43769</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>272</v>
@@ -59832,52 +59923,44 @@
         <v>0.85074626865671643</v>
       </c>
       <c r="M9" s="70">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.77501406162114872</v>
+        <v>0.88</v>
       </c>
       <c r="N9" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Version Compare")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Version Compare")</f>
-        <v>0.25</v>
+        <v>0.96</v>
       </c>
       <c r="O9" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Traces")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Traces")</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="P9" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Process Artifact")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Process Artifact")</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="42">
         <f t="shared" si="1"/>
         <v>62.686567164179095</v>
       </c>
       <c r="R9" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
-        <v>450</v>
+        <v>53</v>
       </c>
       <c r="S9" s="42">
         <f t="shared" si="2"/>
         <v>22.388059701492537</v>
       </c>
       <c r="T9" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Version Compare")</f>
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="U9" s="42">
         <f t="shared" si="3"/>
         <v>17.910447761194028</v>
       </c>
       <c r="V9" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Traces")</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="W9" s="42">
         <f t="shared" si="4"/>
         <v>8.2089552238805972</v>
       </c>
       <c r="X9" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Process Artifact")</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="32"/>
       <c r="AB9" s="17" t="s">
@@ -59921,30 +60004,54 @@
         <f>SUM($J$4:J10)/SUM($J$4:$J$10)</f>
         <v>1</v>
       </c>
-      <c r="M10" s="75"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
+      <c r="M10" s="75">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="N10" s="77">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Version Compare")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Version Compare")</f>
+        <v>0.25</v>
+      </c>
+      <c r="O10" s="77">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Traces")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Traces")</f>
+        <v>0.25</v>
+      </c>
+      <c r="P10" s="77">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Process Artifact")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Process Artifact")</f>
+        <v>0.25</v>
+      </c>
       <c r="Q10" s="71">
         <f t="shared" ref="Q10" si="13">$Q$25*(100%-K10)</f>
         <v>0</v>
       </c>
-      <c r="R10" s="71"/>
+      <c r="R10" s="71">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
+        <v>450</v>
+      </c>
       <c r="S10" s="71">
         <f t="shared" ref="S10" si="14">$Q$26*(100%-K10)</f>
         <v>0</v>
       </c>
-      <c r="T10" s="71"/>
+      <c r="T10" s="71">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Version Compare")</f>
+        <v>150</v>
+      </c>
       <c r="U10" s="71">
         <f t="shared" ref="U10" si="15">$Q$27*(100%-L10)</f>
         <v>0</v>
       </c>
-      <c r="V10" s="71"/>
+      <c r="V10" s="71">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Traces")</f>
+        <v>150</v>
+      </c>
       <c r="W10" s="71">
         <f t="shared" ref="W10" si="16">$Q$28*(100%-K10)</f>
         <v>0</v>
       </c>
-      <c r="X10" s="71"/>
+      <c r="X10" s="71">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Process Artifact")</f>
+        <v>150</v>
+      </c>
       <c r="Z10" s="32"/>
       <c r="AB10" s="17" t="s">
         <v>50</v>
@@ -60212,7 +60319,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$3:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$3:$Z$9),0%)</f>
-        <v>0.73134328358208955</v>
+        <v>0.95522388059701491</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
@@ -60221,7 +60328,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.26865671641791045</v>
+        <v>4.4776119402985093E-2</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
@@ -61825,132 +61932,116 @@
         <v>43760</v>
       </c>
       <c r="D9" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
-        <v>2000.125</v>
+        <v>440</v>
       </c>
       <c r="E9" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>420</v>
       </c>
       <c r="F9" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="G9" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
-        <v>540</v>
+        <v>440</v>
       </c>
       <c r="H9" s="40">
         <f t="shared" ref="H9" si="60">D9-I9</f>
-        <v>1550.125</v>
+        <v>387</v>
       </c>
       <c r="I9" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
-        <v>450</v>
+        <v>53</v>
       </c>
       <c r="J9" s="33">
         <f t="shared" ref="J9" si="61" xml:space="preserve"> G9/D9</f>
-        <v>0.2699831260546216</v>
+        <v>1</v>
       </c>
       <c r="K9" s="33">
         <f t="shared" ref="K9" si="62" xml:space="preserve"> H9/D9</f>
-        <v>0.77501406162114872</v>
+        <v>0.87954545454545452</v>
       </c>
       <c r="L9" s="59">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
-        <v>200</v>
+        <v>133.5</v>
       </c>
       <c r="M9" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>150</v>
       </c>
       <c r="N9" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
-        <v>0</v>
+        <v>133.5</v>
       </c>
       <c r="O9" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
-        <v>180</v>
+        <v>133.5</v>
       </c>
       <c r="P9" s="40">
         <f t="shared" ref="P9" si="63">L9-Q9</f>
-        <v>50</v>
+        <v>128.5</v>
       </c>
       <c r="Q9" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="R9" s="33">
         <f t="shared" ref="R9" si="64" xml:space="preserve"> O9/L9</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="S9" s="33">
         <f t="shared" ref="S9" si="65" xml:space="preserve"> P9/L9</f>
-        <v>0.25</v>
+        <v>0.96254681647940077</v>
       </c>
       <c r="T9" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="U9" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>120</v>
       </c>
       <c r="V9" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="W9" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="X9" s="40">
         <f t="shared" ref="X9" si="66">T9-Y9</f>
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="Y9" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="33">
         <f t="shared" ref="Z9" si="67" xml:space="preserve"> W9/T9</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="33">
         <f t="shared" ref="AA9" si="68">X9/T9</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
-        <v>200</v>
+        <v>48.4</v>
       </c>
       <c r="AC9" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>55</v>
       </c>
       <c r="AD9" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="AE9" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
-        <v>180</v>
+        <v>48.5</v>
       </c>
       <c r="AF9" s="40">
         <f t="shared" ref="AF9" si="69">AB9-AG9</f>
-        <v>50</v>
+        <v>48.4</v>
       </c>
       <c r="AG9" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="33">
         <f t="shared" ref="AH9" si="70" xml:space="preserve"> AE9/AB9</f>
-        <v>0.9</v>
+        <v>1.0020661157024793</v>
       </c>
       <c r="AI9" s="33">
         <f t="shared" ref="AI9" si="71">AF9/AB9</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
@@ -61963,50 +62054,134 @@
       <c r="C10" s="60">
         <v>43774</v>
       </c>
-      <c r="D10" s="57"/>
+      <c r="D10" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
+        <v>2000.125</v>
+      </c>
       <c r="E10" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>420</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="59"/>
+      <c r="F10" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
+        <v>540</v>
+      </c>
+      <c r="H10" s="40">
+        <f t="shared" ref="H10" si="72">D10-I10</f>
+        <v>1550.125</v>
+      </c>
+      <c r="I10" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
+        <v>450</v>
+      </c>
+      <c r="J10" s="33">
+        <f t="shared" ref="J10" si="73" xml:space="preserve"> G10/D10</f>
+        <v>0.2699831260546216</v>
+      </c>
+      <c r="K10" s="33">
+        <f t="shared" ref="K10" si="74" xml:space="preserve"> H10/D10</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="L10" s="59">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
+        <v>200</v>
+      </c>
       <c r="M10" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>150</v>
       </c>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="57"/>
+      <c r="N10" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
+        <v>180</v>
+      </c>
+      <c r="P10" s="40">
+        <f t="shared" ref="P10" si="75">L10-Q10</f>
+        <v>50</v>
+      </c>
+      <c r="Q10" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Version Compare")</f>
+        <v>150</v>
+      </c>
+      <c r="R10" s="33">
+        <f t="shared" ref="R10" si="76" xml:space="preserve"> O10/L10</f>
+        <v>0.9</v>
+      </c>
+      <c r="S10" s="33">
+        <f t="shared" ref="S10" si="77" xml:space="preserve"> P10/L10</f>
+        <v>0.25</v>
+      </c>
+      <c r="T10" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
+        <v>200</v>
+      </c>
       <c r="U10" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>120</v>
       </c>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="57"/>
+      <c r="V10" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
+        <v>180</v>
+      </c>
+      <c r="X10" s="40">
+        <f t="shared" ref="X10" si="78">T10-Y10</f>
+        <v>50</v>
+      </c>
+      <c r="Y10" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Traces")</f>
+        <v>150</v>
+      </c>
+      <c r="Z10" s="33">
+        <f t="shared" ref="Z10" si="79" xml:space="preserve"> W10/T10</f>
+        <v>0.9</v>
+      </c>
+      <c r="AA10" s="33">
+        <f t="shared" ref="AA10" si="80">X10/T10</f>
+        <v>0.25</v>
+      </c>
+      <c r="AB10" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
+        <v>200</v>
+      </c>
       <c r="AC10" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>55</v>
       </c>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="40"/>
-      <c r="AG10" s="40"/>
-      <c r="AH10" s="33"/>
-      <c r="AI10" s="33"/>
+      <c r="AD10" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
+        <v>180</v>
+      </c>
+      <c r="AF10" s="40">
+        <f t="shared" ref="AF10" si="81">AB10-AG10</f>
+        <v>50</v>
+      </c>
+      <c r="AG10" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Process Artifact")</f>
+        <v>150</v>
+      </c>
+      <c r="AH10" s="33">
+        <f t="shared" ref="AH10" si="82" xml:space="preserve"> AE10/AB10</f>
+        <v>0.9</v>
+      </c>
+      <c r="AI10" s="33">
+        <f t="shared" ref="AI10" si="83">AF10/AB10</f>
+        <v>0.25</v>
+      </c>
       <c r="AM10" s="16" t="s">
         <v>162</v>
       </c>
@@ -62538,20 +62713,24 @@
         <v>260</v>
       </c>
       <c r="C21" s="20">
-        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>1460.125</v>
+        <v>120</v>
       </c>
       <c r="D21" s="20">
-        <f>GETPIVOTDATA("Story Points",$G$5)</f>
-        <v>35</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="C22" s="20">
+        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <v>1460.125</v>
+      </c>
+      <c r="D22" s="20">
+        <f>GETPIVOTDATA("Story Points",$G$5)</f>
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
